--- a/german_template.xlsx
+++ b/german_template.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastianwegscheider/thorneco/teco/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C86A1DE9-449D-F44F-93C9-64E7B5EB0C50}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9EB6DCB-67A8-A642-8BA6-2DEA40A903D9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-12120" windowWidth="38400" windowHeight="21140" xr2:uid="{420A8452-1EB4-9C48-A9FC-24F1884EB89E}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{420A8452-1EB4-9C48-A9FC-24F1884EB89E}"/>
   </bookViews>
   <sheets>
     <sheet name="Deeplinktemplate" sheetId="1" r:id="rId1"/>
-    <sheet name="Hartl" sheetId="8" r:id="rId2"/>
-    <sheet name="Hagemeyer" sheetId="9" r:id="rId3"/>
-    <sheet name="Unielektro" sheetId="10" r:id="rId4"/>
-    <sheet name="Löffelhardt" sheetId="11" r:id="rId5"/>
-    <sheet name="Zajadacz" sheetId="6" r:id="rId6"/>
-    <sheet name="Lichtzentrale" sheetId="7" r:id="rId7"/>
-    <sheet name="Gautzsch" sheetId="5" r:id="rId8"/>
-    <sheet name="Sonepar" sheetId="3" r:id="rId9"/>
-    <sheet name="FAMO" sheetId="2" r:id="rId10"/>
+    <sheet name="Poppy" sheetId="12" r:id="rId2"/>
+    <sheet name="Hartl" sheetId="8" r:id="rId3"/>
+    <sheet name="Hagemeyer" sheetId="9" r:id="rId4"/>
+    <sheet name="Unielektro" sheetId="10" r:id="rId5"/>
+    <sheet name="Löffelhardt" sheetId="11" r:id="rId6"/>
+    <sheet name="Zajadacz" sheetId="6" r:id="rId7"/>
+    <sheet name="Lichtzentrale" sheetId="7" r:id="rId8"/>
+    <sheet name="Gautzsch" sheetId="5" r:id="rId9"/>
+    <sheet name="Sonepar" sheetId="3" r:id="rId10"/>
+    <sheet name="FAMO" sheetId="2" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="germanrows" localSheetId="0">Deeplinktemplate!$A$1:$AI$186</definedName>
@@ -68,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5284" uniqueCount="1251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5775" uniqueCount="1423">
   <si>
     <t>&lt;tr class="aliceonly germanonly"&gt;&lt;td valign="middle"&gt;</t>
   </si>
@@ -3821,13 +3822,529 @@
   </si>
   <si>
     <t>" data-loeffelhardt="</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Artikeln.</t>
+  </si>
+  <si>
+    <t>Link zum Datenblatt EN</t>
+  </si>
+  <si>
+    <t>Link zum Datenblatt DE</t>
+  </si>
+  <si>
+    <t>Link zum Datenblatt FR</t>
+  </si>
+  <si>
+    <t>Link zum Datenblatt CS</t>
+  </si>
+  <si>
+    <t>Link zur Photometrie EN</t>
+  </si>
+  <si>
+    <t>Link Photometrie EN</t>
+  </si>
+  <si>
+    <t>Link zur Photometrie DE</t>
+  </si>
+  <si>
+    <t>Link Photometrie DE</t>
+  </si>
+  <si>
+    <t>Link zur Photometrie FR</t>
+  </si>
+  <si>
+    <t>Link Photometrie FR</t>
+  </si>
+  <si>
+    <t>Link zur Photometrie CS</t>
+  </si>
+  <si>
+    <t>Link PhotometrieCS</t>
+  </si>
+  <si>
+    <t>Link zur Montageanleitung</t>
+  </si>
+  <si>
+    <t>Link Montageanleitung</t>
+  </si>
+  <si>
+    <t>Link zur EG-Erklärung</t>
+  </si>
+  <si>
+    <t>Link EG-Erklärung</t>
+  </si>
+  <si>
+    <t>POPPY LED 600 2500 840</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/PDF/DataSheet.aspx?ArticleID=337720&amp;ModeID=21&amp;lang=en&amp;DataSheetType=1&amp;CompanyID=4&amp;SubCompanyID=44</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/PDF/DataSheet.aspx?ArticleID=337720&amp;ModeID=21&amp;lang=de&amp;DataSheetType=1&amp;CompanyID=4&amp;SubCompanyID=44</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/PDF/DataSheet.aspx?ArticleID=337720&amp;ModeID=21&amp;lang=fr&amp;DataSheetType=1&amp;CompanyID=4&amp;SubCompanyID=44</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/PDF/DataSheet.aspx?ArticleID=337720&amp;ModeID=21&amp;lang=cs&amp;DataSheetType=1&amp;CompanyID=4&amp;SubCompanyID=44</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/LFC/lfc.aspx?Language=en&amp;format=LDT&amp;ModeID=21&amp;UsePDB=1&amp;ArticleID=337720&amp;ext=.ldt</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/LFC/lfc.aspx?Language=de&amp;format=LDT&amp;ModeID=21&amp;UsePDB=1&amp;ArticleID=337720&amp;ext=.ldt</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/LFC/lfc.aspx?Language=fr&amp;format=LDT&amp;ModeID=21&amp;UsePDB=1&amp;ArticleID=337720&amp;ext=.ldt</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/LFC/lfc.aspx?Language=cs&amp;format=LDT&amp;ModeID=21&amp;UsePDB=1&amp;ArticleID=337720&amp;ext=.ldt</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/PDB/Ressource/manual/TE_POPPY_manual.pdf</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/PDB/Ressource/certpdf/CE_TE_Poppy_2018104.pdf</t>
+  </si>
+  <si>
+    <t>POPPY LED 1200 2500 840</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/PDF/DataSheet.aspx?ArticleID=337721&amp;ModeID=21&amp;lang=en&amp;DataSheetType=1&amp;CompanyID=4&amp;SubCompanyID=44</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/PDF/DataSheet.aspx?ArticleID=337721&amp;ModeID=21&amp;lang=de&amp;DataSheetType=1&amp;CompanyID=4&amp;SubCompanyID=44</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/PDF/DataSheet.aspx?ArticleID=337721&amp;ModeID=21&amp;lang=fr&amp;DataSheetType=1&amp;CompanyID=4&amp;SubCompanyID=44</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/PDF/DataSheet.aspx?ArticleID=337721&amp;ModeID=21&amp;lang=cs&amp;DataSheetType=1&amp;CompanyID=4&amp;SubCompanyID=44</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/LFC/lfc.aspx?Language=en&amp;format=LDT&amp;ModeID=21&amp;UsePDB=1&amp;ArticleID=337721&amp;ext=.ldt</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/LFC/lfc.aspx?Language=de&amp;format=LDT&amp;ModeID=21&amp;UsePDB=1&amp;ArticleID=337721&amp;ext=.ldt</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/LFC/lfc.aspx?Language=fr&amp;format=LDT&amp;ModeID=21&amp;UsePDB=1&amp;ArticleID=337721&amp;ext=.ldt</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/LFC/lfc.aspx?Language=cs&amp;format=LDT&amp;ModeID=21&amp;UsePDB=1&amp;ArticleID=337721&amp;ext=.ldt</t>
+  </si>
+  <si>
+    <t>POPPY LED 1200 5000 840</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/PDF/DataSheet.aspx?ArticleID=337722&amp;ModeID=21&amp;lang=en&amp;DataSheetType=1&amp;CompanyID=4&amp;SubCompanyID=44</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/PDF/DataSheet.aspx?ArticleID=337722&amp;ModeID=21&amp;lang=de&amp;DataSheetType=1&amp;CompanyID=4&amp;SubCompanyID=44</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/PDF/DataSheet.aspx?ArticleID=337722&amp;ModeID=21&amp;lang=fr&amp;DataSheetType=1&amp;CompanyID=4&amp;SubCompanyID=44</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/PDF/DataSheet.aspx?ArticleID=337722&amp;ModeID=21&amp;lang=cs&amp;DataSheetType=1&amp;CompanyID=4&amp;SubCompanyID=44</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/LFC/lfc.aspx?Language=en&amp;format=LDT&amp;ModeID=21&amp;UsePDB=1&amp;ArticleID=337722&amp;ext=.ldt</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/LFC/lfc.aspx?Language=de&amp;format=LDT&amp;ModeID=21&amp;UsePDB=1&amp;ArticleID=337722&amp;ext=.ldt</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/LFC/lfc.aspx?Language=fr&amp;format=LDT&amp;ModeID=21&amp;UsePDB=1&amp;ArticleID=337722&amp;ext=.ldt</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/LFC/lfc.aspx?Language=cs&amp;format=LDT&amp;ModeID=21&amp;UsePDB=1&amp;ArticleID=337722&amp;ext=.ldt</t>
+  </si>
+  <si>
+    <t>POPPY LED 1500 4500 840</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/PDF/DataSheet.aspx?ArticleID=337723&amp;ModeID=21&amp;lang=en&amp;DataSheetType=1&amp;CompanyID=4&amp;SubCompanyID=44</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/PDF/DataSheet.aspx?ArticleID=337723&amp;ModeID=21&amp;lang=de&amp;DataSheetType=1&amp;CompanyID=4&amp;SubCompanyID=44</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/PDF/DataSheet.aspx?ArticleID=337723&amp;ModeID=21&amp;lang=fr&amp;DataSheetType=1&amp;CompanyID=4&amp;SubCompanyID=44</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/PDF/DataSheet.aspx?ArticleID=337723&amp;ModeID=21&amp;lang=cs&amp;DataSheetType=1&amp;CompanyID=4&amp;SubCompanyID=44</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/LFC/lfc.aspx?Language=en&amp;format=LDT&amp;ModeID=21&amp;UsePDB=1&amp;ArticleID=337723&amp;ext=.ldt</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/LFC/lfc.aspx?Language=de&amp;format=LDT&amp;ModeID=21&amp;UsePDB=1&amp;ArticleID=337723&amp;ext=.ldt</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/LFC/lfc.aspx?Language=fr&amp;format=LDT&amp;ModeID=21&amp;UsePDB=1&amp;ArticleID=337723&amp;ext=.ldt</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/LFC/lfc.aspx?Language=cs&amp;format=LDT&amp;ModeID=21&amp;UsePDB=1&amp;ArticleID=337723&amp;ext=.ldt</t>
+  </si>
+  <si>
+    <t>POPPY LED 1500 6500 840</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/PDF/DataSheet.aspx?ArticleID=337724&amp;ModeID=21&amp;lang=en&amp;DataSheetType=1&amp;CompanyID=4&amp;SubCompanyID=44</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/PDF/DataSheet.aspx?ArticleID=337724&amp;ModeID=21&amp;lang=de&amp;DataSheetType=1&amp;CompanyID=4&amp;SubCompanyID=44</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/PDF/DataSheet.aspx?ArticleID=337724&amp;ModeID=21&amp;lang=fr&amp;DataSheetType=1&amp;CompanyID=4&amp;SubCompanyID=44</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/PDF/DataSheet.aspx?ArticleID=337724&amp;ModeID=21&amp;lang=cs&amp;DataSheetType=1&amp;CompanyID=4&amp;SubCompanyID=44</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/LFC/lfc.aspx?Language=en&amp;format=LDT&amp;ModeID=21&amp;UsePDB=1&amp;ArticleID=337724&amp;ext=.ldt</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/LFC/lfc.aspx?Language=de&amp;format=LDT&amp;ModeID=21&amp;UsePDB=1&amp;ArticleID=337724&amp;ext=.ldt</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/LFC/lfc.aspx?Language=fr&amp;format=LDT&amp;ModeID=21&amp;UsePDB=1&amp;ArticleID=337724&amp;ext=.ldt</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/LFC/lfc.aspx?Language=cs&amp;format=LDT&amp;ModeID=21&amp;UsePDB=1&amp;ArticleID=337724&amp;ext=.ldt</t>
+  </si>
+  <si>
+    <t>POPPY LED 1800 6500 840</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/PDF/DataSheet.aspx?ArticleID=337725&amp;ModeID=21&amp;lang=en&amp;DataSheetType=1&amp;CompanyID=4&amp;SubCompanyID=44</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/PDF/DataSheet.aspx?ArticleID=337725&amp;ModeID=21&amp;lang=de&amp;DataSheetType=1&amp;CompanyID=4&amp;SubCompanyID=44</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/PDF/DataSheet.aspx?ArticleID=337725&amp;ModeID=21&amp;lang=fr&amp;DataSheetType=1&amp;CompanyID=4&amp;SubCompanyID=44</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/PDF/DataSheet.aspx?ArticleID=337725&amp;ModeID=21&amp;lang=cs&amp;DataSheetType=1&amp;CompanyID=4&amp;SubCompanyID=44</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/LFC/lfc.aspx?Language=en&amp;format=LDT&amp;ModeID=21&amp;UsePDB=1&amp;ArticleID=337725&amp;ext=.ldt</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/LFC/lfc.aspx?Language=de&amp;format=LDT&amp;ModeID=21&amp;UsePDB=1&amp;ArticleID=337725&amp;ext=.ldt</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/LFC/lfc.aspx?Language=fr&amp;format=LDT&amp;ModeID=21&amp;UsePDB=1&amp;ArticleID=337725&amp;ext=.ldt</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/LFC/lfc.aspx?Language=cs&amp;format=LDT&amp;ModeID=21&amp;UsePDB=1&amp;ArticleID=337725&amp;ext=.ldt</t>
+  </si>
+  <si>
+    <t>POPPY LED 1800 8500 840</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/PDF/DataSheet.aspx?ArticleID=337726&amp;ModeID=21&amp;lang=en&amp;DataSheetType=1&amp;CompanyID=4&amp;SubCompanyID=44</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/PDF/DataSheet.aspx?ArticleID=337726&amp;ModeID=21&amp;lang=de&amp;DataSheetType=1&amp;CompanyID=4&amp;SubCompanyID=44</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/PDF/DataSheet.aspx?ArticleID=337726&amp;ModeID=21&amp;lang=fr&amp;DataSheetType=1&amp;CompanyID=4&amp;SubCompanyID=44</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/PDF/DataSheet.aspx?ArticleID=337726&amp;ModeID=21&amp;lang=cs&amp;DataSheetType=1&amp;CompanyID=4&amp;SubCompanyID=44</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/LFC/lfc.aspx?Language=en&amp;format=LDT&amp;ModeID=21&amp;UsePDB=1&amp;ArticleID=337726&amp;ext=.ldt</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/LFC/lfc.aspx?Language=de&amp;format=LDT&amp;ModeID=21&amp;UsePDB=1&amp;ArticleID=337726&amp;ext=.ldt</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/LFC/lfc.aspx?Language=fr&amp;format=LDT&amp;ModeID=21&amp;UsePDB=1&amp;ArticleID=337726&amp;ext=.ldt</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/LFC/lfc.aspx?Language=cs&amp;format=LDT&amp;ModeID=21&amp;UsePDB=1&amp;ArticleID=337726&amp;ext=.ldt</t>
+  </si>
+  <si>
+    <t>POPPY LED 1200 2500 840 E3</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/PDF/DataSheet.aspx?ArticleID=337727&amp;ModeID=21&amp;lang=en&amp;DataSheetType=1&amp;CompanyID=4&amp;SubCompanyID=44</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/PDF/DataSheet.aspx?ArticleID=337727&amp;ModeID=21&amp;lang=de&amp;DataSheetType=1&amp;CompanyID=4&amp;SubCompanyID=44</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/PDF/DataSheet.aspx?ArticleID=337727&amp;ModeID=21&amp;lang=fr&amp;DataSheetType=1&amp;CompanyID=4&amp;SubCompanyID=44</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/PDF/DataSheet.aspx?ArticleID=337727&amp;ModeID=21&amp;lang=cs&amp;DataSheetType=1&amp;CompanyID=4&amp;SubCompanyID=44</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/LFC/lfc.aspx?Language=en&amp;format=LDT&amp;ModeID=21&amp;UsePDB=1&amp;ArticleID=337727&amp;ext=.ldt</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/LFC/lfc.aspx?Language=de&amp;format=LDT&amp;ModeID=21&amp;UsePDB=1&amp;ArticleID=337727&amp;ext=.ldt</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/LFC/lfc.aspx?Language=fr&amp;format=LDT&amp;ModeID=21&amp;UsePDB=1&amp;ArticleID=337727&amp;ext=.ldt</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/LFC/lfc.aspx?Language=cs&amp;format=LDT&amp;ModeID=21&amp;UsePDB=1&amp;ArticleID=337727&amp;ext=.ldt</t>
+  </si>
+  <si>
+    <t>POPPY LED 1200 5000 840 E3</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/PDF/DataSheet.aspx?ArticleID=337728&amp;ModeID=21&amp;lang=en&amp;DataSheetType=1&amp;CompanyID=4&amp;SubCompanyID=44</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/PDF/DataSheet.aspx?ArticleID=337728&amp;ModeID=21&amp;lang=de&amp;DataSheetType=1&amp;CompanyID=4&amp;SubCompanyID=44</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/PDF/DataSheet.aspx?ArticleID=337728&amp;ModeID=21&amp;lang=fr&amp;DataSheetType=1&amp;CompanyID=4&amp;SubCompanyID=44</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/PDF/DataSheet.aspx?ArticleID=337728&amp;ModeID=21&amp;lang=cs&amp;DataSheetType=1&amp;CompanyID=4&amp;SubCompanyID=44</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/LFC/lfc.aspx?Language=en&amp;format=LDT&amp;ModeID=21&amp;UsePDB=1&amp;ArticleID=337728&amp;ext=.ldt</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/LFC/lfc.aspx?Language=de&amp;format=LDT&amp;ModeID=21&amp;UsePDB=1&amp;ArticleID=337728&amp;ext=.ldt</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/LFC/lfc.aspx?Language=fr&amp;format=LDT&amp;ModeID=21&amp;UsePDB=1&amp;ArticleID=337728&amp;ext=.ldt</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/LFC/lfc.aspx?Language=cs&amp;format=LDT&amp;ModeID=21&amp;UsePDB=1&amp;ArticleID=337728&amp;ext=.ldt</t>
+  </si>
+  <si>
+    <t>POPPY LED 1500 4500 840 E3</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/PDF/DataSheet.aspx?ArticleID=337729&amp;ModeID=21&amp;lang=en&amp;DataSheetType=1&amp;CompanyID=4&amp;SubCompanyID=44</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/PDF/DataSheet.aspx?ArticleID=337729&amp;ModeID=21&amp;lang=de&amp;DataSheetType=1&amp;CompanyID=4&amp;SubCompanyID=44</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/PDF/DataSheet.aspx?ArticleID=337729&amp;ModeID=21&amp;lang=fr&amp;DataSheetType=1&amp;CompanyID=4&amp;SubCompanyID=44</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/PDF/DataSheet.aspx?ArticleID=337729&amp;ModeID=21&amp;lang=cs&amp;DataSheetType=1&amp;CompanyID=4&amp;SubCompanyID=44</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/LFC/lfc.aspx?Language=en&amp;format=LDT&amp;ModeID=21&amp;UsePDB=1&amp;ArticleID=337729&amp;ext=.ldt</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/LFC/lfc.aspx?Language=de&amp;format=LDT&amp;ModeID=21&amp;UsePDB=1&amp;ArticleID=337729&amp;ext=.ldt</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/LFC/lfc.aspx?Language=fr&amp;format=LDT&amp;ModeID=21&amp;UsePDB=1&amp;ArticleID=337729&amp;ext=.ldt</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/LFC/lfc.aspx?Language=cs&amp;format=LDT&amp;ModeID=21&amp;UsePDB=1&amp;ArticleID=337729&amp;ext=.ldt</t>
+  </si>
+  <si>
+    <t>POPPY LED 1500 6500 840 E3</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/PDF/DataSheet.aspx?ArticleID=337730&amp;ModeID=21&amp;lang=en&amp;DataSheetType=1&amp;CompanyID=4&amp;SubCompanyID=44</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/PDF/DataSheet.aspx?ArticleID=337730&amp;ModeID=21&amp;lang=de&amp;DataSheetType=1&amp;CompanyID=4&amp;SubCompanyID=44</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/PDF/DataSheet.aspx?ArticleID=337730&amp;ModeID=21&amp;lang=fr&amp;DataSheetType=1&amp;CompanyID=4&amp;SubCompanyID=44</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/PDF/DataSheet.aspx?ArticleID=337730&amp;ModeID=21&amp;lang=cs&amp;DataSheetType=1&amp;CompanyID=4&amp;SubCompanyID=44</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/LFC/lfc.aspx?Language=en&amp;format=LDT&amp;ModeID=21&amp;UsePDB=1&amp;ArticleID=337730&amp;ext=.ldt</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/LFC/lfc.aspx?Language=de&amp;format=LDT&amp;ModeID=21&amp;UsePDB=1&amp;ArticleID=337730&amp;ext=.ldt</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/LFC/lfc.aspx?Language=fr&amp;format=LDT&amp;ModeID=21&amp;UsePDB=1&amp;ArticleID=337730&amp;ext=.ldt</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/LFC/lfc.aspx?Language=cs&amp;format=LDT&amp;ModeID=21&amp;UsePDB=1&amp;ArticleID=337730&amp;ext=.ldt</t>
+  </si>
+  <si>
+    <t>POPPY LED 1800 6500 840 E3</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/PDF/DataSheet.aspx?ArticleID=337731&amp;ModeID=21&amp;lang=en&amp;DataSheetType=1&amp;CompanyID=4&amp;SubCompanyID=44</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/PDF/DataSheet.aspx?ArticleID=337731&amp;ModeID=21&amp;lang=de&amp;DataSheetType=1&amp;CompanyID=4&amp;SubCompanyID=44</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/PDF/DataSheet.aspx?ArticleID=337731&amp;ModeID=21&amp;lang=fr&amp;DataSheetType=1&amp;CompanyID=4&amp;SubCompanyID=44</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/PDF/DataSheet.aspx?ArticleID=337731&amp;ModeID=21&amp;lang=cs&amp;DataSheetType=1&amp;CompanyID=4&amp;SubCompanyID=44</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/LFC/lfc.aspx?Language=en&amp;format=LDT&amp;ModeID=21&amp;UsePDB=1&amp;ArticleID=337731&amp;ext=.ldt</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/LFC/lfc.aspx?Language=de&amp;format=LDT&amp;ModeID=21&amp;UsePDB=1&amp;ArticleID=337731&amp;ext=.ldt</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/LFC/lfc.aspx?Language=fr&amp;format=LDT&amp;ModeID=21&amp;UsePDB=1&amp;ArticleID=337731&amp;ext=.ldt</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/LFC/lfc.aspx?Language=cs&amp;format=LDT&amp;ModeID=21&amp;UsePDB=1&amp;ArticleID=337731&amp;ext=.ldt</t>
+  </si>
+  <si>
+    <t>POPPY LED 1800 8500 840 E3</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/PDF/DataSheet.aspx?ArticleID=337732&amp;ModeID=21&amp;lang=en&amp;DataSheetType=1&amp;CompanyID=4&amp;SubCompanyID=44</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/PDF/DataSheet.aspx?ArticleID=337732&amp;ModeID=21&amp;lang=de&amp;DataSheetType=1&amp;CompanyID=4&amp;SubCompanyID=44</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/PDF/DataSheet.aspx?ArticleID=337732&amp;ModeID=21&amp;lang=fr&amp;DataSheetType=1&amp;CompanyID=4&amp;SubCompanyID=44</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/PDF/DataSheet.aspx?ArticleID=337732&amp;ModeID=21&amp;lang=cs&amp;DataSheetType=1&amp;CompanyID=4&amp;SubCompanyID=44</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/LFC/lfc.aspx?Language=en&amp;format=LDT&amp;ModeID=21&amp;UsePDB=1&amp;ArticleID=337732&amp;ext=.ldt</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/LFC/lfc.aspx?Language=de&amp;format=LDT&amp;ModeID=21&amp;UsePDB=1&amp;ArticleID=337732&amp;ext=.ldt</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/LFC/lfc.aspx?Language=fr&amp;format=LDT&amp;ModeID=21&amp;UsePDB=1&amp;ArticleID=337732&amp;ext=.ldt</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/LFC/lfc.aspx?Language=cs&amp;format=LDT&amp;ModeID=21&amp;UsePDB=1&amp;ArticleID=337732&amp;ext=.ldt</t>
+  </si>
+  <si>
+    <t>POPPY SUSPENSION KIT</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/PDF/DataSheet.aspx?ArticleID=337733&amp;ModeID=21&amp;lang=en&amp;DataSheetType=1&amp;CompanyID=4&amp;SubCompanyID=44</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/PDF/DataSheet.aspx?ArticleID=337733&amp;ModeID=21&amp;lang=de&amp;DataSheetType=1&amp;CompanyID=4&amp;SubCompanyID=44</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/PDF/DataSheet.aspx?ArticleID=337733&amp;ModeID=21&amp;lang=fr&amp;DataSheetType=1&amp;CompanyID=4&amp;SubCompanyID=44</t>
+  </si>
+  <si>
+    <t>http://www.thorn-eco.com/object/PDF/DataSheet.aspx?ArticleID=337733&amp;ModeID=21&amp;lang=cs&amp;DataSheetType=1&amp;CompanyID=4&amp;SubCompanyID=44</t>
+  </si>
+  <si>
+    <t>&lt;tr class="poppyonly germanonly"&gt;&lt;td valign="middle"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.thorn-eco.com/object/PDF/DataSheet.aspx?ArticleID=337720&amp;ModeID=21&amp;lang=de&amp;DataSheetType=1&amp;CompanyID=4&amp;SubCompanyID=44" target="_blank"&gt;Link&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.thorn-eco.com/object/PDF/DataSheet.aspx?ArticleID=337721&amp;ModeID=21&amp;lang=de&amp;DataSheetType=1&amp;CompanyID=4&amp;SubCompanyID=44" target="_blank"&gt;Link&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.thorn-eco.com/object/PDF/DataSheet.aspx?ArticleID=337722&amp;ModeID=21&amp;lang=de&amp;DataSheetType=1&amp;CompanyID=4&amp;SubCompanyID=44" target="_blank"&gt;Link&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.thorn-eco.com/object/PDF/DataSheet.aspx?ArticleID=337723&amp;ModeID=21&amp;lang=de&amp;DataSheetType=1&amp;CompanyID=4&amp;SubCompanyID=44" target="_blank"&gt;Link&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.thorn-eco.com/object/PDF/DataSheet.aspx?ArticleID=337724&amp;ModeID=21&amp;lang=de&amp;DataSheetType=1&amp;CompanyID=4&amp;SubCompanyID=44" target="_blank"&gt;Link&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.thorn-eco.com/object/PDF/DataSheet.aspx?ArticleID=337725&amp;ModeID=21&amp;lang=de&amp;DataSheetType=1&amp;CompanyID=4&amp;SubCompanyID=44" target="_blank"&gt;Link&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.thorn-eco.com/object/PDF/DataSheet.aspx?ArticleID=337726&amp;ModeID=21&amp;lang=de&amp;DataSheetType=1&amp;CompanyID=4&amp;SubCompanyID=44" target="_blank"&gt;Link&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.thorn-eco.com/object/PDF/DataSheet.aspx?ArticleID=337727&amp;ModeID=21&amp;lang=de&amp;DataSheetType=1&amp;CompanyID=4&amp;SubCompanyID=44" target="_blank"&gt;Link&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.thorn-eco.com/object/PDF/DataSheet.aspx?ArticleID=337728&amp;ModeID=21&amp;lang=de&amp;DataSheetType=1&amp;CompanyID=4&amp;SubCompanyID=44" target="_blank"&gt;Link&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.thorn-eco.com/object/PDF/DataSheet.aspx?ArticleID=337729&amp;ModeID=21&amp;lang=de&amp;DataSheetType=1&amp;CompanyID=4&amp;SubCompanyID=44" target="_blank"&gt;Link&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.thorn-eco.com/object/PDF/DataSheet.aspx?ArticleID=337730&amp;ModeID=21&amp;lang=de&amp;DataSheetType=1&amp;CompanyID=4&amp;SubCompanyID=44" target="_blank"&gt;Link&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.thorn-eco.com/object/PDF/DataSheet.aspx?ArticleID=337731&amp;ModeID=21&amp;lang=de&amp;DataSheetType=1&amp;CompanyID=4&amp;SubCompanyID=44" target="_blank"&gt;Link&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.thorn-eco.com/object/PDF/DataSheet.aspx?ArticleID=337732&amp;ModeID=21&amp;lang=de&amp;DataSheetType=1&amp;CompanyID=4&amp;SubCompanyID=44" target="_blank"&gt;Link&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.thorn-eco.com/object/PDF/DataSheet.aspx?ArticleID=337733&amp;ModeID=21&amp;lang=de&amp;DataSheetType=1&amp;CompanyID=4&amp;SubCompanyID=44" target="_blank"&gt;Link&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.thorn-eco.com/object/LFC/lfc.aspx?Language=de&amp;format=LDT&amp;ModeID=21&amp;UsePDB=1&amp;ArticleID=337720&amp;ext=.ldt" target="_blank"&gt;Link&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.thorn-eco.com/object/LFC/lfc.aspx?Language=de&amp;format=LDT&amp;ModeID=21&amp;UsePDB=1&amp;ArticleID=337721&amp;ext=.ldt" target="_blank"&gt;Link&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.thorn-eco.com/object/LFC/lfc.aspx?Language=de&amp;format=LDT&amp;ModeID=21&amp;UsePDB=1&amp;ArticleID=337722&amp;ext=.ldt" target="_blank"&gt;Link&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.thorn-eco.com/object/LFC/lfc.aspx?Language=de&amp;format=LDT&amp;ModeID=21&amp;UsePDB=1&amp;ArticleID=337723&amp;ext=.ldt" target="_blank"&gt;Link&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.thorn-eco.com/object/LFC/lfc.aspx?Language=de&amp;format=LDT&amp;ModeID=21&amp;UsePDB=1&amp;ArticleID=337724&amp;ext=.ldt" target="_blank"&gt;Link&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.thorn-eco.com/object/LFC/lfc.aspx?Language=de&amp;format=LDT&amp;ModeID=21&amp;UsePDB=1&amp;ArticleID=337725&amp;ext=.ldt" target="_blank"&gt;Link&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.thorn-eco.com/object/LFC/lfc.aspx?Language=de&amp;format=LDT&amp;ModeID=21&amp;UsePDB=1&amp;ArticleID=337726&amp;ext=.ldt" target="_blank"&gt;Link&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.thorn-eco.com/object/LFC/lfc.aspx?Language=de&amp;format=LDT&amp;ModeID=21&amp;UsePDB=1&amp;ArticleID=337727&amp;ext=.ldt" target="_blank"&gt;Link&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.thorn-eco.com/object/LFC/lfc.aspx?Language=de&amp;format=LDT&amp;ModeID=21&amp;UsePDB=1&amp;ArticleID=337728&amp;ext=.ldt" target="_blank"&gt;Link&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.thorn-eco.com/object/LFC/lfc.aspx?Language=de&amp;format=LDT&amp;ModeID=21&amp;UsePDB=1&amp;ArticleID=337729&amp;ext=.ldt" target="_blank"&gt;Link&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.thorn-eco.com/object/LFC/lfc.aspx?Language=de&amp;format=LDT&amp;ModeID=21&amp;UsePDB=1&amp;ArticleID=337730&amp;ext=.ldt" target="_blank"&gt;Link&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.thorn-eco.com/object/LFC/lfc.aspx?Language=de&amp;format=LDT&amp;ModeID=21&amp;UsePDB=1&amp;ArticleID=337731&amp;ext=.ldt" target="_blank"&gt;Link&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.thorn-eco.com/object/LFC/lfc.aspx?Language=de&amp;format=LDT&amp;ModeID=21&amp;UsePDB=1&amp;ArticleID=337732&amp;ext=.ldt" target="_blank"&gt;Link&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.thorn-eco.com/PDB/Ressource/manual/TE_POPPY_manual.pdf" target="_blank"&gt;Link&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.thorn-eco.com/PDB/Ressource/certpdf/CE_TE_Poppy_2018104.pdf" target="_blank"&gt;Link&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3869,6 +4386,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -3899,12 +4424,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3945,8 +4471,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{C8865971-3FDE-A449-ACF9-1E39FD5B55B9}"/>
     <cellStyle name="Standard 3" xfId="2" xr:uid="{4DB6FD65-C401-6645-9DC7-303289C35D2C}"/>
@@ -4265,10 +4798,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{569AE352-869A-4F45-B004-EFD7D1F0C624}">
-  <dimension ref="A1:AI186"/>
+  <dimension ref="A1:AI200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Z11" sqref="Z11"/>
+    <sheetView tabSelected="1" topLeftCell="Z183" workbookViewId="0">
+      <selection activeCell="AA194" sqref="AA194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26030,12 +26563,2934 @@
         <v>13</v>
       </c>
     </row>
+    <row r="187" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B187" t="str">
+        <f>Poppy!B2</f>
+        <v>POPPY LED 600 2500 840</v>
+      </c>
+      <c r="C187" t="s">
+        <v>2</v>
+      </c>
+      <c r="D187">
+        <f>Poppy!A2</f>
+        <v>96631257</v>
+      </c>
+      <c r="E187" t="s">
+        <v>2</v>
+      </c>
+      <c r="F187" t="s">
+        <v>1394</v>
+      </c>
+      <c r="G187" t="s">
+        <v>2</v>
+      </c>
+      <c r="H187" t="s">
+        <v>1408</v>
+      </c>
+      <c r="I187" t="s">
+        <v>2</v>
+      </c>
+      <c r="J187" t="s">
+        <v>1421</v>
+      </c>
+      <c r="K187" t="s">
+        <v>2</v>
+      </c>
+      <c r="L187" t="s">
+        <v>1422</v>
+      </c>
+      <c r="M187" t="s">
+        <v>2</v>
+      </c>
+      <c r="N187" t="s">
+        <v>7</v>
+      </c>
+      <c r="P187" t="s">
+        <v>8</v>
+      </c>
+      <c r="R187" t="s">
+        <v>9</v>
+      </c>
+      <c r="T187" t="s">
+        <v>10</v>
+      </c>
+      <c r="V187" t="s">
+        <v>1247</v>
+      </c>
+      <c r="X187" t="s">
+        <v>1248</v>
+      </c>
+      <c r="Z187" t="s">
+        <v>1249</v>
+      </c>
+      <c r="AB187" t="s">
+        <v>1250</v>
+      </c>
+      <c r="AD187" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF187" t="s">
+        <v>1078</v>
+      </c>
+      <c r="AH187" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI187" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="188" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B188" t="str">
+        <f>Poppy!B3</f>
+        <v>POPPY LED 1200 2500 840</v>
+      </c>
+      <c r="C188" t="s">
+        <v>2</v>
+      </c>
+      <c r="D188">
+        <f>Poppy!A3</f>
+        <v>96631258</v>
+      </c>
+      <c r="E188" t="s">
+        <v>2</v>
+      </c>
+      <c r="F188" t="s">
+        <v>1395</v>
+      </c>
+      <c r="G188" t="s">
+        <v>2</v>
+      </c>
+      <c r="H188" t="s">
+        <v>1409</v>
+      </c>
+      <c r="I188" t="s">
+        <v>2</v>
+      </c>
+      <c r="J188" t="s">
+        <v>1421</v>
+      </c>
+      <c r="K188" t="s">
+        <v>2</v>
+      </c>
+      <c r="L188" t="s">
+        <v>1422</v>
+      </c>
+      <c r="M188" t="s">
+        <v>2</v>
+      </c>
+      <c r="N188" t="s">
+        <v>7</v>
+      </c>
+      <c r="P188" t="s">
+        <v>8</v>
+      </c>
+      <c r="R188" t="s">
+        <v>9</v>
+      </c>
+      <c r="T188" t="s">
+        <v>10</v>
+      </c>
+      <c r="V188" t="s">
+        <v>1247</v>
+      </c>
+      <c r="X188" t="s">
+        <v>1248</v>
+      </c>
+      <c r="Z188" t="s">
+        <v>1249</v>
+      </c>
+      <c r="AB188" t="s">
+        <v>1250</v>
+      </c>
+      <c r="AD188" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF188" t="s">
+        <v>1078</v>
+      </c>
+      <c r="AH188" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI188" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="189" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B189" t="str">
+        <f>Poppy!B4</f>
+        <v>POPPY LED 1200 5000 840</v>
+      </c>
+      <c r="C189" t="s">
+        <v>2</v>
+      </c>
+      <c r="D189">
+        <f>Poppy!A4</f>
+        <v>96631259</v>
+      </c>
+      <c r="E189" t="s">
+        <v>2</v>
+      </c>
+      <c r="F189" t="s">
+        <v>1396</v>
+      </c>
+      <c r="G189" t="s">
+        <v>2</v>
+      </c>
+      <c r="H189" t="s">
+        <v>1410</v>
+      </c>
+      <c r="I189" t="s">
+        <v>2</v>
+      </c>
+      <c r="J189" t="s">
+        <v>1421</v>
+      </c>
+      <c r="K189" t="s">
+        <v>2</v>
+      </c>
+      <c r="L189" t="s">
+        <v>1422</v>
+      </c>
+      <c r="M189" t="s">
+        <v>2</v>
+      </c>
+      <c r="N189" t="s">
+        <v>7</v>
+      </c>
+      <c r="P189" t="s">
+        <v>8</v>
+      </c>
+      <c r="R189" t="s">
+        <v>9</v>
+      </c>
+      <c r="T189" t="s">
+        <v>10</v>
+      </c>
+      <c r="V189" t="s">
+        <v>1247</v>
+      </c>
+      <c r="X189" t="s">
+        <v>1248</v>
+      </c>
+      <c r="Z189" t="s">
+        <v>1249</v>
+      </c>
+      <c r="AB189" t="s">
+        <v>1250</v>
+      </c>
+      <c r="AD189" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF189" t="s">
+        <v>1078</v>
+      </c>
+      <c r="AH189" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI189" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="190" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B190" t="str">
+        <f>Poppy!B5</f>
+        <v>POPPY LED 1500 4500 840</v>
+      </c>
+      <c r="C190" t="s">
+        <v>2</v>
+      </c>
+      <c r="D190">
+        <f>Poppy!A5</f>
+        <v>96631260</v>
+      </c>
+      <c r="E190" t="s">
+        <v>2</v>
+      </c>
+      <c r="F190" t="s">
+        <v>1397</v>
+      </c>
+      <c r="G190" t="s">
+        <v>2</v>
+      </c>
+      <c r="H190" t="s">
+        <v>1411</v>
+      </c>
+      <c r="I190" t="s">
+        <v>2</v>
+      </c>
+      <c r="J190" t="s">
+        <v>1421</v>
+      </c>
+      <c r="K190" t="s">
+        <v>2</v>
+      </c>
+      <c r="L190" t="s">
+        <v>1422</v>
+      </c>
+      <c r="M190" t="s">
+        <v>2</v>
+      </c>
+      <c r="N190" t="s">
+        <v>7</v>
+      </c>
+      <c r="P190" t="s">
+        <v>8</v>
+      </c>
+      <c r="R190" t="s">
+        <v>9</v>
+      </c>
+      <c r="T190" t="s">
+        <v>10</v>
+      </c>
+      <c r="V190" t="s">
+        <v>1247</v>
+      </c>
+      <c r="X190" t="s">
+        <v>1248</v>
+      </c>
+      <c r="Z190" t="s">
+        <v>1249</v>
+      </c>
+      <c r="AB190" t="s">
+        <v>1250</v>
+      </c>
+      <c r="AD190" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF190" t="s">
+        <v>1078</v>
+      </c>
+      <c r="AH190" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI190" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="191" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B191" t="str">
+        <f>Poppy!B6</f>
+        <v>POPPY LED 1500 6500 840</v>
+      </c>
+      <c r="C191" t="s">
+        <v>2</v>
+      </c>
+      <c r="D191">
+        <f>Poppy!A6</f>
+        <v>96631261</v>
+      </c>
+      <c r="E191" t="s">
+        <v>2</v>
+      </c>
+      <c r="F191" t="s">
+        <v>1398</v>
+      </c>
+      <c r="G191" t="s">
+        <v>2</v>
+      </c>
+      <c r="H191" t="s">
+        <v>1412</v>
+      </c>
+      <c r="I191" t="s">
+        <v>2</v>
+      </c>
+      <c r="J191" t="s">
+        <v>1421</v>
+      </c>
+      <c r="K191" t="s">
+        <v>2</v>
+      </c>
+      <c r="L191" t="s">
+        <v>1422</v>
+      </c>
+      <c r="M191" t="s">
+        <v>2</v>
+      </c>
+      <c r="N191" t="s">
+        <v>7</v>
+      </c>
+      <c r="P191" t="s">
+        <v>8</v>
+      </c>
+      <c r="R191" t="s">
+        <v>9</v>
+      </c>
+      <c r="T191" t="s">
+        <v>10</v>
+      </c>
+      <c r="V191" t="s">
+        <v>1247</v>
+      </c>
+      <c r="X191" t="s">
+        <v>1248</v>
+      </c>
+      <c r="Z191" t="s">
+        <v>1249</v>
+      </c>
+      <c r="AB191" t="s">
+        <v>1250</v>
+      </c>
+      <c r="AD191" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF191" t="s">
+        <v>1078</v>
+      </c>
+      <c r="AH191" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI191" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="192" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B192" t="str">
+        <f>Poppy!B7</f>
+        <v>POPPY LED 1800 6500 840</v>
+      </c>
+      <c r="C192" t="s">
+        <v>2</v>
+      </c>
+      <c r="D192">
+        <f>Poppy!A7</f>
+        <v>96631262</v>
+      </c>
+      <c r="E192" t="s">
+        <v>2</v>
+      </c>
+      <c r="F192" t="s">
+        <v>1399</v>
+      </c>
+      <c r="G192" t="s">
+        <v>2</v>
+      </c>
+      <c r="H192" t="s">
+        <v>1413</v>
+      </c>
+      <c r="I192" t="s">
+        <v>2</v>
+      </c>
+      <c r="J192" t="s">
+        <v>1421</v>
+      </c>
+      <c r="K192" t="s">
+        <v>2</v>
+      </c>
+      <c r="L192" t="s">
+        <v>1422</v>
+      </c>
+      <c r="M192" t="s">
+        <v>2</v>
+      </c>
+      <c r="N192" t="s">
+        <v>7</v>
+      </c>
+      <c r="P192" t="s">
+        <v>8</v>
+      </c>
+      <c r="R192" t="s">
+        <v>9</v>
+      </c>
+      <c r="T192" t="s">
+        <v>10</v>
+      </c>
+      <c r="V192" t="s">
+        <v>1247</v>
+      </c>
+      <c r="X192" t="s">
+        <v>1248</v>
+      </c>
+      <c r="Z192" t="s">
+        <v>1249</v>
+      </c>
+      <c r="AB192" t="s">
+        <v>1250</v>
+      </c>
+      <c r="AD192" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF192" t="s">
+        <v>1078</v>
+      </c>
+      <c r="AH192" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI192" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="193" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B193" t="str">
+        <f>Poppy!B8</f>
+        <v>POPPY LED 1800 8500 840</v>
+      </c>
+      <c r="C193" t="s">
+        <v>2</v>
+      </c>
+      <c r="D193">
+        <f>Poppy!A8</f>
+        <v>96631263</v>
+      </c>
+      <c r="E193" t="s">
+        <v>2</v>
+      </c>
+      <c r="F193" t="s">
+        <v>1400</v>
+      </c>
+      <c r="G193" t="s">
+        <v>2</v>
+      </c>
+      <c r="H193" t="s">
+        <v>1414</v>
+      </c>
+      <c r="I193" t="s">
+        <v>2</v>
+      </c>
+      <c r="J193" t="s">
+        <v>1421</v>
+      </c>
+      <c r="K193" t="s">
+        <v>2</v>
+      </c>
+      <c r="L193" t="s">
+        <v>1422</v>
+      </c>
+      <c r="M193" t="s">
+        <v>2</v>
+      </c>
+      <c r="N193" t="s">
+        <v>7</v>
+      </c>
+      <c r="P193" t="s">
+        <v>8</v>
+      </c>
+      <c r="R193" t="s">
+        <v>9</v>
+      </c>
+      <c r="T193" t="s">
+        <v>10</v>
+      </c>
+      <c r="V193" t="s">
+        <v>1247</v>
+      </c>
+      <c r="X193" t="s">
+        <v>1248</v>
+      </c>
+      <c r="Z193" t="s">
+        <v>1249</v>
+      </c>
+      <c r="AB193" t="s">
+        <v>1250</v>
+      </c>
+      <c r="AD193" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF193" t="s">
+        <v>1078</v>
+      </c>
+      <c r="AH193" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI193" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="194" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B194" t="str">
+        <f>Poppy!B9</f>
+        <v>POPPY LED 1200 2500 840 E3</v>
+      </c>
+      <c r="C194" t="s">
+        <v>2</v>
+      </c>
+      <c r="D194">
+        <f>Poppy!A9</f>
+        <v>96631268</v>
+      </c>
+      <c r="E194" t="s">
+        <v>2</v>
+      </c>
+      <c r="F194" t="s">
+        <v>1401</v>
+      </c>
+      <c r="G194" t="s">
+        <v>2</v>
+      </c>
+      <c r="H194" t="s">
+        <v>1415</v>
+      </c>
+      <c r="I194" t="s">
+        <v>2</v>
+      </c>
+      <c r="J194" t="s">
+        <v>1421</v>
+      </c>
+      <c r="K194" t="s">
+        <v>2</v>
+      </c>
+      <c r="L194" t="s">
+        <v>1422</v>
+      </c>
+      <c r="M194" t="s">
+        <v>2</v>
+      </c>
+      <c r="N194" t="s">
+        <v>7</v>
+      </c>
+      <c r="P194" t="s">
+        <v>8</v>
+      </c>
+      <c r="R194" t="s">
+        <v>9</v>
+      </c>
+      <c r="T194" t="s">
+        <v>10</v>
+      </c>
+      <c r="V194" t="s">
+        <v>1247</v>
+      </c>
+      <c r="X194" t="s">
+        <v>1248</v>
+      </c>
+      <c r="Z194" t="s">
+        <v>1249</v>
+      </c>
+      <c r="AB194" t="s">
+        <v>1250</v>
+      </c>
+      <c r="AD194" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF194" t="s">
+        <v>1078</v>
+      </c>
+      <c r="AH194" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI194" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="195" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B195" t="str">
+        <f>Poppy!B10</f>
+        <v>POPPY LED 1200 5000 840 E3</v>
+      </c>
+      <c r="C195" t="s">
+        <v>2</v>
+      </c>
+      <c r="D195">
+        <f>Poppy!A10</f>
+        <v>96631269</v>
+      </c>
+      <c r="E195" t="s">
+        <v>2</v>
+      </c>
+      <c r="F195" t="s">
+        <v>1402</v>
+      </c>
+      <c r="G195" t="s">
+        <v>2</v>
+      </c>
+      <c r="H195" t="s">
+        <v>1416</v>
+      </c>
+      <c r="I195" t="s">
+        <v>2</v>
+      </c>
+      <c r="J195" t="s">
+        <v>1421</v>
+      </c>
+      <c r="K195" t="s">
+        <v>2</v>
+      </c>
+      <c r="L195" t="s">
+        <v>1422</v>
+      </c>
+      <c r="M195" t="s">
+        <v>2</v>
+      </c>
+      <c r="N195" t="s">
+        <v>7</v>
+      </c>
+      <c r="P195" t="s">
+        <v>8</v>
+      </c>
+      <c r="R195" t="s">
+        <v>9</v>
+      </c>
+      <c r="T195" t="s">
+        <v>10</v>
+      </c>
+      <c r="V195" t="s">
+        <v>1247</v>
+      </c>
+      <c r="X195" t="s">
+        <v>1248</v>
+      </c>
+      <c r="Z195" t="s">
+        <v>1249</v>
+      </c>
+      <c r="AB195" t="s">
+        <v>1250</v>
+      </c>
+      <c r="AD195" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF195" t="s">
+        <v>1078</v>
+      </c>
+      <c r="AH195" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI195" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="196" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B196" t="str">
+        <f>Poppy!B11</f>
+        <v>POPPY LED 1500 4500 840 E3</v>
+      </c>
+      <c r="C196" t="s">
+        <v>2</v>
+      </c>
+      <c r="D196">
+        <f>Poppy!A11</f>
+        <v>96631270</v>
+      </c>
+      <c r="E196" t="s">
+        <v>2</v>
+      </c>
+      <c r="F196" t="s">
+        <v>1403</v>
+      </c>
+      <c r="G196" t="s">
+        <v>2</v>
+      </c>
+      <c r="H196" t="s">
+        <v>1417</v>
+      </c>
+      <c r="I196" t="s">
+        <v>2</v>
+      </c>
+      <c r="J196" t="s">
+        <v>1421</v>
+      </c>
+      <c r="K196" t="s">
+        <v>2</v>
+      </c>
+      <c r="L196" t="s">
+        <v>1422</v>
+      </c>
+      <c r="M196" t="s">
+        <v>2</v>
+      </c>
+      <c r="N196" t="s">
+        <v>7</v>
+      </c>
+      <c r="P196" t="s">
+        <v>8</v>
+      </c>
+      <c r="R196" t="s">
+        <v>9</v>
+      </c>
+      <c r="T196" t="s">
+        <v>10</v>
+      </c>
+      <c r="V196" t="s">
+        <v>1247</v>
+      </c>
+      <c r="X196" t="s">
+        <v>1248</v>
+      </c>
+      <c r="Z196" t="s">
+        <v>1249</v>
+      </c>
+      <c r="AB196" t="s">
+        <v>1250</v>
+      </c>
+      <c r="AD196" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF196" t="s">
+        <v>1078</v>
+      </c>
+      <c r="AH196" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI196" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="197" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B197" t="str">
+        <f>Poppy!B12</f>
+        <v>POPPY LED 1500 6500 840 E3</v>
+      </c>
+      <c r="C197" t="s">
+        <v>2</v>
+      </c>
+      <c r="D197">
+        <f>Poppy!A12</f>
+        <v>96631271</v>
+      </c>
+      <c r="E197" t="s">
+        <v>2</v>
+      </c>
+      <c r="F197" t="s">
+        <v>1404</v>
+      </c>
+      <c r="G197" t="s">
+        <v>2</v>
+      </c>
+      <c r="H197" t="s">
+        <v>1418</v>
+      </c>
+      <c r="I197" t="s">
+        <v>2</v>
+      </c>
+      <c r="J197" t="s">
+        <v>1421</v>
+      </c>
+      <c r="K197" t="s">
+        <v>2</v>
+      </c>
+      <c r="L197" t="s">
+        <v>1422</v>
+      </c>
+      <c r="M197" t="s">
+        <v>2</v>
+      </c>
+      <c r="N197" t="s">
+        <v>7</v>
+      </c>
+      <c r="P197" t="s">
+        <v>8</v>
+      </c>
+      <c r="R197" t="s">
+        <v>9</v>
+      </c>
+      <c r="T197" t="s">
+        <v>10</v>
+      </c>
+      <c r="V197" t="s">
+        <v>1247</v>
+      </c>
+      <c r="X197" t="s">
+        <v>1248</v>
+      </c>
+      <c r="Z197" t="s">
+        <v>1249</v>
+      </c>
+      <c r="AB197" t="s">
+        <v>1250</v>
+      </c>
+      <c r="AD197" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF197" t="s">
+        <v>1078</v>
+      </c>
+      <c r="AH197" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI197" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="198" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B198" t="str">
+        <f>Poppy!B13</f>
+        <v>POPPY LED 1800 6500 840 E3</v>
+      </c>
+      <c r="C198" t="s">
+        <v>2</v>
+      </c>
+      <c r="D198">
+        <f>Poppy!A13</f>
+        <v>96631272</v>
+      </c>
+      <c r="E198" t="s">
+        <v>2</v>
+      </c>
+      <c r="F198" t="s">
+        <v>1405</v>
+      </c>
+      <c r="G198" t="s">
+        <v>2</v>
+      </c>
+      <c r="H198" t="s">
+        <v>1419</v>
+      </c>
+      <c r="I198" t="s">
+        <v>2</v>
+      </c>
+      <c r="J198" t="s">
+        <v>1421</v>
+      </c>
+      <c r="K198" t="s">
+        <v>2</v>
+      </c>
+      <c r="L198" t="s">
+        <v>1422</v>
+      </c>
+      <c r="M198" t="s">
+        <v>2</v>
+      </c>
+      <c r="N198" t="s">
+        <v>7</v>
+      </c>
+      <c r="P198" t="s">
+        <v>8</v>
+      </c>
+      <c r="R198" t="s">
+        <v>9</v>
+      </c>
+      <c r="T198" t="s">
+        <v>10</v>
+      </c>
+      <c r="V198" t="s">
+        <v>1247</v>
+      </c>
+      <c r="X198" t="s">
+        <v>1248</v>
+      </c>
+      <c r="Z198" t="s">
+        <v>1249</v>
+      </c>
+      <c r="AB198" t="s">
+        <v>1250</v>
+      </c>
+      <c r="AD198" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF198" t="s">
+        <v>1078</v>
+      </c>
+      <c r="AH198" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI198" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="199" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B199" t="str">
+        <f>Poppy!B14</f>
+        <v>POPPY LED 1800 8500 840 E3</v>
+      </c>
+      <c r="C199" t="s">
+        <v>2</v>
+      </c>
+      <c r="D199">
+        <f>Poppy!A14</f>
+        <v>96631273</v>
+      </c>
+      <c r="E199" t="s">
+        <v>2</v>
+      </c>
+      <c r="F199" t="s">
+        <v>1406</v>
+      </c>
+      <c r="G199" t="s">
+        <v>2</v>
+      </c>
+      <c r="H199" t="s">
+        <v>1420</v>
+      </c>
+      <c r="I199" t="s">
+        <v>2</v>
+      </c>
+      <c r="J199" t="s">
+        <v>1421</v>
+      </c>
+      <c r="K199" t="s">
+        <v>2</v>
+      </c>
+      <c r="L199" t="s">
+        <v>1422</v>
+      </c>
+      <c r="M199" t="s">
+        <v>2</v>
+      </c>
+      <c r="N199" t="s">
+        <v>7</v>
+      </c>
+      <c r="P199" t="s">
+        <v>8</v>
+      </c>
+      <c r="R199" t="s">
+        <v>9</v>
+      </c>
+      <c r="T199" t="s">
+        <v>10</v>
+      </c>
+      <c r="V199" t="s">
+        <v>1247</v>
+      </c>
+      <c r="X199" t="s">
+        <v>1248</v>
+      </c>
+      <c r="Z199" t="s">
+        <v>1249</v>
+      </c>
+      <c r="AB199" t="s">
+        <v>1250</v>
+      </c>
+      <c r="AD199" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF199" t="s">
+        <v>1078</v>
+      </c>
+      <c r="AH199" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI199" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="200" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B200" t="str">
+        <f>Poppy!B15</f>
+        <v>POPPY SUSPENSION KIT</v>
+      </c>
+      <c r="C200" t="s">
+        <v>2</v>
+      </c>
+      <c r="D200">
+        <f>Poppy!A15</f>
+        <v>96631274</v>
+      </c>
+      <c r="E200" t="s">
+        <v>2</v>
+      </c>
+      <c r="F200" t="s">
+        <v>1407</v>
+      </c>
+      <c r="G200" t="s">
+        <v>2</v>
+      </c>
+      <c r="I200" t="s">
+        <v>2</v>
+      </c>
+      <c r="J200" t="s">
+        <v>1421</v>
+      </c>
+      <c r="K200" t="s">
+        <v>2</v>
+      </c>
+      <c r="L200" t="s">
+        <v>1422</v>
+      </c>
+      <c r="M200" t="s">
+        <v>2</v>
+      </c>
+      <c r="N200" t="s">
+        <v>7</v>
+      </c>
+      <c r="P200" t="s">
+        <v>8</v>
+      </c>
+      <c r="R200" t="s">
+        <v>9</v>
+      </c>
+      <c r="T200" t="s">
+        <v>10</v>
+      </c>
+      <c r="V200" t="s">
+        <v>1247</v>
+      </c>
+      <c r="X200" t="s">
+        <v>1248</v>
+      </c>
+      <c r="Z200" t="s">
+        <v>1249</v>
+      </c>
+      <c r="AB200" t="s">
+        <v>1250</v>
+      </c>
+      <c r="AD200" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF200" t="s">
+        <v>1078</v>
+      </c>
+      <c r="AH200" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI200" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA4A1B7A-B4E1-7E4E-B1B4-780578A9EC15}">
+  <dimension ref="A1:C164"/>
+  <sheetViews>
+    <sheetView topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="A139" sqref="A139"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>748</v>
+      </c>
+      <c r="B1" t="s">
+        <v>746</v>
+      </c>
+      <c r="C1" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>96629371</v>
+      </c>
+      <c r="B2" t="s">
+        <v>749</v>
+      </c>
+      <c r="C2" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>96629372</v>
+      </c>
+      <c r="B3" t="s">
+        <v>751</v>
+      </c>
+      <c r="C3" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>96629373</v>
+      </c>
+      <c r="B4" t="s">
+        <v>752</v>
+      </c>
+      <c r="C4" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>96628836</v>
+      </c>
+      <c r="B5" t="s">
+        <v>753</v>
+      </c>
+      <c r="C5" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>96666073</v>
+      </c>
+      <c r="B6" t="s">
+        <v>754</v>
+      </c>
+      <c r="C6" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>96666074</v>
+      </c>
+      <c r="B7" t="s">
+        <v>755</v>
+      </c>
+      <c r="C7" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>96666075</v>
+      </c>
+      <c r="B8" t="s">
+        <v>756</v>
+      </c>
+      <c r="C8" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>96666076</v>
+      </c>
+      <c r="B9" t="s">
+        <v>757</v>
+      </c>
+      <c r="C9" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>96665583</v>
+      </c>
+      <c r="B10" t="s">
+        <v>758</v>
+      </c>
+      <c r="C10" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>96665584</v>
+      </c>
+      <c r="B11" t="s">
+        <v>759</v>
+      </c>
+      <c r="C11" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>96628352</v>
+      </c>
+      <c r="B12" t="s">
+        <v>760</v>
+      </c>
+      <c r="C12" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>96628353</v>
+      </c>
+      <c r="B13" t="s">
+        <v>761</v>
+      </c>
+      <c r="C13" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>96665585</v>
+      </c>
+      <c r="B14" t="s">
+        <v>762</v>
+      </c>
+      <c r="C14" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>96665586</v>
+      </c>
+      <c r="B15" t="s">
+        <v>763</v>
+      </c>
+      <c r="C15" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>96665844</v>
+      </c>
+      <c r="B16" t="s">
+        <v>764</v>
+      </c>
+      <c r="C16" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>96665845</v>
+      </c>
+      <c r="B17" t="s">
+        <v>765</v>
+      </c>
+      <c r="C17" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>96665846</v>
+      </c>
+      <c r="B18" t="s">
+        <v>766</v>
+      </c>
+      <c r="C18" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>96665847</v>
+      </c>
+      <c r="B19" t="s">
+        <v>767</v>
+      </c>
+      <c r="C19" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>96665848</v>
+      </c>
+      <c r="B20" t="s">
+        <v>768</v>
+      </c>
+      <c r="C20" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>96665849</v>
+      </c>
+      <c r="B21" t="s">
+        <v>769</v>
+      </c>
+      <c r="C21" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>96665587</v>
+      </c>
+      <c r="B22" t="s">
+        <v>770</v>
+      </c>
+      <c r="C22" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>96665588</v>
+      </c>
+      <c r="B23" t="s">
+        <v>771</v>
+      </c>
+      <c r="C23" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>96631113</v>
+      </c>
+      <c r="B24" t="s">
+        <v>772</v>
+      </c>
+      <c r="C24" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>96631114</v>
+      </c>
+      <c r="B25" t="s">
+        <v>773</v>
+      </c>
+      <c r="C25" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>96631115</v>
+      </c>
+      <c r="B26" t="s">
+        <v>774</v>
+      </c>
+      <c r="C26" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>96631116</v>
+      </c>
+      <c r="B27" t="s">
+        <v>775</v>
+      </c>
+      <c r="C27" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>96631117</v>
+      </c>
+      <c r="B28" t="s">
+        <v>776</v>
+      </c>
+      <c r="C28" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>96630069</v>
+      </c>
+      <c r="B29" t="s">
+        <v>777</v>
+      </c>
+      <c r="C29" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>96630066</v>
+      </c>
+      <c r="B30" t="s">
+        <v>778</v>
+      </c>
+      <c r="C30" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>96630070</v>
+      </c>
+      <c r="B31" t="s">
+        <v>779</v>
+      </c>
+      <c r="C31" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>96630067</v>
+      </c>
+      <c r="B32" t="s">
+        <v>780</v>
+      </c>
+      <c r="C32" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>96630224</v>
+      </c>
+      <c r="B33" t="s">
+        <v>781</v>
+      </c>
+      <c r="C33" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>96630226</v>
+      </c>
+      <c r="B34" t="s">
+        <v>782</v>
+      </c>
+      <c r="C34" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>96630225</v>
+      </c>
+      <c r="B35" t="s">
+        <v>783</v>
+      </c>
+      <c r="C35" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>96630227</v>
+      </c>
+      <c r="B36" t="s">
+        <v>784</v>
+      </c>
+      <c r="C36" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>96630223</v>
+      </c>
+      <c r="B37" t="s">
+        <v>785</v>
+      </c>
+      <c r="C37" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>96630068</v>
+      </c>
+      <c r="B38" t="s">
+        <v>786</v>
+      </c>
+      <c r="C38" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>96630376</v>
+      </c>
+      <c r="B39" t="s">
+        <v>787</v>
+      </c>
+      <c r="C39" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>96630377</v>
+      </c>
+      <c r="B40" t="s">
+        <v>788</v>
+      </c>
+      <c r="C40" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>96630378</v>
+      </c>
+      <c r="B41" t="s">
+        <v>789</v>
+      </c>
+      <c r="C41" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>96630379</v>
+      </c>
+      <c r="B42" t="s">
+        <v>790</v>
+      </c>
+      <c r="C42" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>96630327</v>
+      </c>
+      <c r="B43" t="s">
+        <v>791</v>
+      </c>
+      <c r="C43" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>96630328</v>
+      </c>
+      <c r="B44" t="s">
+        <v>792</v>
+      </c>
+      <c r="C44" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>96630329</v>
+      </c>
+      <c r="B45" t="s">
+        <v>793</v>
+      </c>
+      <c r="C45" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>96630330</v>
+      </c>
+      <c r="B46" t="s">
+        <v>794</v>
+      </c>
+      <c r="C46" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>96631131</v>
+      </c>
+      <c r="B47" t="s">
+        <v>795</v>
+      </c>
+      <c r="C47" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>96628615</v>
+      </c>
+      <c r="B48" t="s">
+        <v>796</v>
+      </c>
+      <c r="C48" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>96666098</v>
+      </c>
+      <c r="B49" t="s">
+        <v>797</v>
+      </c>
+      <c r="C49" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>96666099</v>
+      </c>
+      <c r="B50" t="s">
+        <v>798</v>
+      </c>
+      <c r="C50" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>96628614</v>
+      </c>
+      <c r="B51" t="s">
+        <v>799</v>
+      </c>
+      <c r="C51" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>96630322</v>
+      </c>
+      <c r="B52" t="s">
+        <v>800</v>
+      </c>
+      <c r="C52" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>96666100</v>
+      </c>
+      <c r="B53" t="s">
+        <v>801</v>
+      </c>
+      <c r="C53" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>96629750</v>
+      </c>
+      <c r="B54" t="s">
+        <v>802</v>
+      </c>
+      <c r="C54" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>96629751</v>
+      </c>
+      <c r="B55" t="s">
+        <v>803</v>
+      </c>
+      <c r="C55" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>96631224</v>
+      </c>
+      <c r="B56" t="s">
+        <v>804</v>
+      </c>
+      <c r="C56" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>96630391</v>
+      </c>
+      <c r="B57" t="s">
+        <v>805</v>
+      </c>
+      <c r="C57" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>96630340</v>
+      </c>
+      <c r="B58" t="s">
+        <v>806</v>
+      </c>
+      <c r="C58" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>96630341</v>
+      </c>
+      <c r="B59" t="s">
+        <v>807</v>
+      </c>
+      <c r="C59" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>96630347</v>
+      </c>
+      <c r="B60" t="s">
+        <v>808</v>
+      </c>
+      <c r="C60" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>96630349</v>
+      </c>
+      <c r="B61" t="s">
+        <v>809</v>
+      </c>
+      <c r="C61" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>96630350</v>
+      </c>
+      <c r="B62" t="s">
+        <v>810</v>
+      </c>
+      <c r="C62" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>96630390</v>
+      </c>
+      <c r="B63" t="s">
+        <v>811</v>
+      </c>
+      <c r="C63" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>96630345</v>
+      </c>
+      <c r="B64" t="s">
+        <v>812</v>
+      </c>
+      <c r="C64" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>96630573</v>
+      </c>
+      <c r="B65" t="s">
+        <v>813</v>
+      </c>
+      <c r="C65" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>96630574</v>
+      </c>
+      <c r="B66" t="s">
+        <v>814</v>
+      </c>
+      <c r="C66" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>96630346</v>
+      </c>
+      <c r="B67" t="s">
+        <v>815</v>
+      </c>
+      <c r="C67" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>96630344</v>
+      </c>
+      <c r="B68" t="s">
+        <v>816</v>
+      </c>
+      <c r="C68" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>96630323</v>
+      </c>
+      <c r="B69" t="s">
+        <v>817</v>
+      </c>
+      <c r="C69" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>96630324</v>
+      </c>
+      <c r="B70" t="s">
+        <v>818</v>
+      </c>
+      <c r="C70" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>96630325</v>
+      </c>
+      <c r="B71" t="s">
+        <v>819</v>
+      </c>
+      <c r="C71" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>96630326</v>
+      </c>
+      <c r="B72" t="s">
+        <v>820</v>
+      </c>
+      <c r="C72" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>96628409</v>
+      </c>
+      <c r="B73" t="s">
+        <v>821</v>
+      </c>
+      <c r="C73" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>96628410</v>
+      </c>
+      <c r="B74" t="s">
+        <v>822</v>
+      </c>
+      <c r="C74" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>96630234</v>
+      </c>
+      <c r="B75" t="s">
+        <v>823</v>
+      </c>
+      <c r="C75" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>96630237</v>
+      </c>
+      <c r="B76" t="s">
+        <v>824</v>
+      </c>
+      <c r="C76" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>96630238</v>
+      </c>
+      <c r="B77" t="s">
+        <v>825</v>
+      </c>
+      <c r="C77" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>96630239</v>
+      </c>
+      <c r="B78" t="s">
+        <v>826</v>
+      </c>
+      <c r="C78" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>96631093</v>
+      </c>
+      <c r="B79" t="s">
+        <v>827</v>
+      </c>
+      <c r="C79" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>96665577</v>
+      </c>
+      <c r="B80" t="s">
+        <v>828</v>
+      </c>
+      <c r="C80" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>96628396</v>
+      </c>
+      <c r="B81" t="s">
+        <v>829</v>
+      </c>
+      <c r="C81" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>96630235</v>
+      </c>
+      <c r="B82" t="s">
+        <v>830</v>
+      </c>
+      <c r="C82" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>96630236</v>
+      </c>
+      <c r="B83" t="s">
+        <v>831</v>
+      </c>
+      <c r="C83" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>96630240</v>
+      </c>
+      <c r="B84" t="s">
+        <v>832</v>
+      </c>
+      <c r="C84" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>96630241</v>
+      </c>
+      <c r="B85" t="s">
+        <v>833</v>
+      </c>
+      <c r="C85" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>96631094</v>
+      </c>
+      <c r="B86" t="s">
+        <v>834</v>
+      </c>
+      <c r="C86" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>96631095</v>
+      </c>
+      <c r="B87" t="s">
+        <v>835</v>
+      </c>
+      <c r="C87" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>96665580</v>
+      </c>
+      <c r="B88" t="s">
+        <v>836</v>
+      </c>
+      <c r="C88" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>96631143</v>
+      </c>
+      <c r="B89" t="s">
+        <v>837</v>
+      </c>
+      <c r="C89" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>96631144</v>
+      </c>
+      <c r="B90" t="s">
+        <v>838</v>
+      </c>
+      <c r="C90" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>96628548</v>
+      </c>
+      <c r="B91" t="s">
+        <v>839</v>
+      </c>
+      <c r="C91" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>96665578</v>
+      </c>
+      <c r="B92" t="s">
+        <v>840</v>
+      </c>
+      <c r="C92" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>96665579</v>
+      </c>
+      <c r="B93" t="s">
+        <v>841</v>
+      </c>
+      <c r="C93" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>96628397</v>
+      </c>
+      <c r="B94" t="s">
+        <v>842</v>
+      </c>
+      <c r="C94" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>96665581</v>
+      </c>
+      <c r="B95" t="s">
+        <v>843</v>
+      </c>
+      <c r="C95" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>96665582</v>
+      </c>
+      <c r="B96" t="s">
+        <v>844</v>
+      </c>
+      <c r="C96" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>96630071</v>
+      </c>
+      <c r="B97" t="s">
+        <v>845</v>
+      </c>
+      <c r="C97" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>96630072</v>
+      </c>
+      <c r="B98" t="s">
+        <v>846</v>
+      </c>
+      <c r="C98" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>96630073</v>
+      </c>
+      <c r="B99" t="s">
+        <v>847</v>
+      </c>
+      <c r="C99" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>96630074</v>
+      </c>
+      <c r="B100" t="s">
+        <v>848</v>
+      </c>
+      <c r="C100" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>96666121</v>
+      </c>
+      <c r="B101" t="s">
+        <v>849</v>
+      </c>
+      <c r="C101" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>96666122</v>
+      </c>
+      <c r="B102" t="s">
+        <v>850</v>
+      </c>
+      <c r="C102" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>96666123</v>
+      </c>
+      <c r="B103" t="s">
+        <v>851</v>
+      </c>
+      <c r="C103" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>96666124</v>
+      </c>
+      <c r="B104" t="s">
+        <v>852</v>
+      </c>
+      <c r="C104" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>96666125</v>
+      </c>
+      <c r="B105" t="s">
+        <v>853</v>
+      </c>
+      <c r="C105" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>96666126</v>
+      </c>
+      <c r="B106" t="s">
+        <v>854</v>
+      </c>
+      <c r="C106" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>96666127</v>
+      </c>
+      <c r="B107" t="s">
+        <v>855</v>
+      </c>
+      <c r="C107" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>96666128</v>
+      </c>
+      <c r="B108" t="s">
+        <v>856</v>
+      </c>
+      <c r="C108" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>96666129</v>
+      </c>
+      <c r="B109" t="s">
+        <v>857</v>
+      </c>
+      <c r="C109" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>96666130</v>
+      </c>
+      <c r="B110" t="s">
+        <v>858</v>
+      </c>
+      <c r="C110" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>96666103</v>
+      </c>
+      <c r="B111" t="s">
+        <v>859</v>
+      </c>
+      <c r="C111" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>96666104</v>
+      </c>
+      <c r="B112" t="s">
+        <v>860</v>
+      </c>
+      <c r="C112" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>96666107</v>
+      </c>
+      <c r="B113" t="s">
+        <v>861</v>
+      </c>
+      <c r="C113" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>96666108</v>
+      </c>
+      <c r="B114" t="s">
+        <v>862</v>
+      </c>
+      <c r="C114" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>96666111</v>
+      </c>
+      <c r="B115" t="s">
+        <v>863</v>
+      </c>
+      <c r="C115" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>96666112</v>
+      </c>
+      <c r="B116" t="s">
+        <v>864</v>
+      </c>
+      <c r="C116" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>96666115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>865</v>
+      </c>
+      <c r="C117" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>96666116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>866</v>
+      </c>
+      <c r="C118" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>96628828</v>
+      </c>
+      <c r="B119" t="s">
+        <v>867</v>
+      </c>
+      <c r="C119" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>96628900</v>
+      </c>
+      <c r="B120" t="s">
+        <v>868</v>
+      </c>
+      <c r="C120" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>96629752</v>
+      </c>
+      <c r="B121" t="s">
+        <v>869</v>
+      </c>
+      <c r="C121" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>96629753</v>
+      </c>
+      <c r="B122" t="s">
+        <v>870</v>
+      </c>
+      <c r="C122" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>96629754</v>
+      </c>
+      <c r="B123" t="s">
+        <v>871</v>
+      </c>
+      <c r="C123" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>96629755</v>
+      </c>
+      <c r="B124" t="s">
+        <v>872</v>
+      </c>
+      <c r="C124" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>96629756</v>
+      </c>
+      <c r="B125" t="s">
+        <v>873</v>
+      </c>
+      <c r="C125" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>96630393</v>
+      </c>
+      <c r="B126" t="s">
+        <v>874</v>
+      </c>
+      <c r="C126" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>96666101</v>
+      </c>
+      <c r="B127" t="s">
+        <v>875</v>
+      </c>
+      <c r="C127" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>96666102</v>
+      </c>
+      <c r="B128" t="s">
+        <v>876</v>
+      </c>
+      <c r="C128" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>96666105</v>
+      </c>
+      <c r="B129" t="s">
+        <v>877</v>
+      </c>
+      <c r="C129" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>96666106</v>
+      </c>
+      <c r="B130" t="s">
+        <v>878</v>
+      </c>
+      <c r="C130" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>96666109</v>
+      </c>
+      <c r="B131" t="s">
+        <v>879</v>
+      </c>
+      <c r="C131" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>96666110</v>
+      </c>
+      <c r="B132" t="s">
+        <v>880</v>
+      </c>
+      <c r="C132" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>96666113</v>
+      </c>
+      <c r="B133" t="s">
+        <v>881</v>
+      </c>
+      <c r="C133" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>96666114</v>
+      </c>
+      <c r="B134" t="s">
+        <v>882</v>
+      </c>
+      <c r="C134" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>96666117</v>
+      </c>
+      <c r="B135" t="s">
+        <v>883</v>
+      </c>
+      <c r="C135" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>96666118</v>
+      </c>
+      <c r="B136" t="s">
+        <v>884</v>
+      </c>
+      <c r="C136" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>96666119</v>
+      </c>
+      <c r="B137" t="s">
+        <v>885</v>
+      </c>
+      <c r="C137" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>96666120</v>
+      </c>
+      <c r="B138" t="s">
+        <v>886</v>
+      </c>
+      <c r="C138" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>96628612</v>
+      </c>
+      <c r="B139" t="s">
+        <v>887</v>
+      </c>
+      <c r="C139" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>96630252</v>
+      </c>
+      <c r="B140" t="s">
+        <v>888</v>
+      </c>
+      <c r="C140" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>96630253</v>
+      </c>
+      <c r="B141" t="s">
+        <v>889</v>
+      </c>
+      <c r="C141" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>96630254</v>
+      </c>
+      <c r="B142" t="s">
+        <v>890</v>
+      </c>
+      <c r="C142" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>96630255</v>
+      </c>
+      <c r="B143" t="s">
+        <v>891</v>
+      </c>
+      <c r="C143" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>96644483</v>
+      </c>
+      <c r="B144" t="s">
+        <v>892</v>
+      </c>
+      <c r="C144" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>96644484</v>
+      </c>
+      <c r="B145" t="s">
+        <v>893</v>
+      </c>
+      <c r="C145" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>96644485</v>
+      </c>
+      <c r="B146" t="s">
+        <v>894</v>
+      </c>
+      <c r="C146" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>96644486</v>
+      </c>
+      <c r="B147" t="s">
+        <v>895</v>
+      </c>
+      <c r="C147" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>96628613</v>
+      </c>
+      <c r="B148" t="s">
+        <v>896</v>
+      </c>
+      <c r="C148" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>96666080</v>
+      </c>
+      <c r="B149" t="s">
+        <v>897</v>
+      </c>
+      <c r="C149" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>96666081</v>
+      </c>
+      <c r="B150" t="s">
+        <v>898</v>
+      </c>
+      <c r="C150" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>96666082</v>
+      </c>
+      <c r="B151" t="s">
+        <v>899</v>
+      </c>
+      <c r="C151" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>96666083</v>
+      </c>
+      <c r="B152" t="s">
+        <v>900</v>
+      </c>
+      <c r="C152" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>96666084</v>
+      </c>
+      <c r="B153" t="s">
+        <v>901</v>
+      </c>
+      <c r="C153" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>96666085</v>
+      </c>
+      <c r="B154" t="s">
+        <v>902</v>
+      </c>
+      <c r="C154" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>96666086</v>
+      </c>
+      <c r="B155" t="s">
+        <v>903</v>
+      </c>
+      <c r="C155" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>96666087</v>
+      </c>
+      <c r="B156" t="s">
+        <v>904</v>
+      </c>
+      <c r="C156" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>96666088</v>
+      </c>
+      <c r="B157" t="s">
+        <v>905</v>
+      </c>
+      <c r="C157" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>96666089</v>
+      </c>
+      <c r="B158" t="s">
+        <v>906</v>
+      </c>
+      <c r="C158" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>96666090</v>
+      </c>
+      <c r="B159" t="s">
+        <v>907</v>
+      </c>
+      <c r="C159" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>96666092</v>
+      </c>
+      <c r="B160" t="s">
+        <v>908</v>
+      </c>
+      <c r="C160" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>96666093</v>
+      </c>
+      <c r="B161" t="s">
+        <v>909</v>
+      </c>
+      <c r="C161" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>96666094</v>
+      </c>
+      <c r="B162" t="s">
+        <v>910</v>
+      </c>
+      <c r="C162" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>96666095</v>
+      </c>
+      <c r="B163" t="s">
+        <v>911</v>
+      </c>
+      <c r="C163" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>96666091</v>
+      </c>
+      <c r="B164" t="s">
+        <v>912</v>
+      </c>
+      <c r="C164" t="s">
+        <v>750</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482CCE69-F764-FF45-8484-91E924166733}">
   <dimension ref="A1:B167"/>
   <sheetViews>
@@ -27391,6 +30846,1176 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CB59CF4-0FC4-1A44-AA5F-1DAED2F95528}">
+  <dimension ref="A1:V15"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.83203125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="38.1640625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="21.83203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="21.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" style="12" customWidth="1"/>
+    <col min="10" max="10" width="21.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.1640625" style="12" customWidth="1"/>
+    <col min="12" max="12" width="19.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.1640625" style="12" customWidth="1"/>
+    <col min="14" max="14" width="19.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="43" style="12" customWidth="1"/>
+    <col min="16" max="16" width="19.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.1640625" style="12" customWidth="1"/>
+    <col min="18" max="18" width="18.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.1640625" style="12" customWidth="1"/>
+    <col min="20" max="20" width="21.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="32.33203125" style="12" customWidth="1"/>
+    <col min="22" max="22" width="16.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.1640625" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>1253</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>1254</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>1255</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>1255</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>1256</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>1256</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>1257</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>1258</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>1259</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>1260</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>1261</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>1262</v>
+      </c>
+      <c r="Q1" s="17" t="s">
+        <v>1263</v>
+      </c>
+      <c r="R1" s="17" t="s">
+        <v>1264</v>
+      </c>
+      <c r="S1" s="17" t="s">
+        <v>1265</v>
+      </c>
+      <c r="T1" s="17" t="s">
+        <v>1266</v>
+      </c>
+      <c r="U1" s="17" t="s">
+        <v>1267</v>
+      </c>
+      <c r="V1" s="17" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" s="17">
+        <v>96631257</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D2" s="18" t="str">
+        <f t="shared" ref="D2:D15" si="0">HYPERLINK(C2,"Link")</f>
+        <v>Link</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>1271</v>
+      </c>
+      <c r="F2" s="18" t="str">
+        <f t="shared" ref="F2:F15" si="1">HYPERLINK(E2,"Link")</f>
+        <v>Link</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>1272</v>
+      </c>
+      <c r="H2" s="18" t="str">
+        <f t="shared" ref="H2:H15" si="2">HYPERLINK(G2,"Link")</f>
+        <v>Link</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>1273</v>
+      </c>
+      <c r="J2" s="18" t="str">
+        <f t="shared" ref="J2:J15" si="3">HYPERLINK(I2,"Link")</f>
+        <v>Link</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>1274</v>
+      </c>
+      <c r="L2" s="18" t="str">
+        <f t="shared" ref="L2:L14" si="4">HYPERLINK(K2,"Link")</f>
+        <v>Link</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="N2" s="18" t="str">
+        <f t="shared" ref="N2:N14" si="5">HYPERLINK(M2,"Link")</f>
+        <v>Link</v>
+      </c>
+      <c r="O2" s="16" t="s">
+        <v>1276</v>
+      </c>
+      <c r="P2" s="18" t="str">
+        <f t="shared" ref="P2:P14" si="6">HYPERLINK(O2,"Link")</f>
+        <v>Link</v>
+      </c>
+      <c r="Q2" s="16" t="s">
+        <v>1277</v>
+      </c>
+      <c r="R2" s="18" t="str">
+        <f t="shared" ref="R2:R14" si="7">HYPERLINK(Q2,"Link")</f>
+        <v>Link</v>
+      </c>
+      <c r="S2" s="16" t="s">
+        <v>1278</v>
+      </c>
+      <c r="T2" s="18" t="str">
+        <f t="shared" ref="T2:T14" si="8">HYPERLINK(S2,"Link")</f>
+        <v>Link</v>
+      </c>
+      <c r="U2" s="16" t="s">
+        <v>1279</v>
+      </c>
+      <c r="V2" s="18" t="str">
+        <f t="shared" ref="V2:V14" si="9">HYPERLINK(U2,"Link")</f>
+        <v>Link</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" s="17">
+        <v>96631258</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D3" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Link</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F3" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Link</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>1283</v>
+      </c>
+      <c r="H3" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>Link</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>1284</v>
+      </c>
+      <c r="J3" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>Link</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>1285</v>
+      </c>
+      <c r="L3" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>Link</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>1286</v>
+      </c>
+      <c r="N3" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>Link</v>
+      </c>
+      <c r="O3" s="16" t="s">
+        <v>1287</v>
+      </c>
+      <c r="P3" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v>Link</v>
+      </c>
+      <c r="Q3" s="16" t="s">
+        <v>1288</v>
+      </c>
+      <c r="R3" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v>Link</v>
+      </c>
+      <c r="S3" s="16" t="s">
+        <v>1278</v>
+      </c>
+      <c r="T3" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v>Link</v>
+      </c>
+      <c r="U3" s="16" t="s">
+        <v>1279</v>
+      </c>
+      <c r="V3" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v>Link</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A4" s="17">
+        <v>96631259</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D4" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Link</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>1291</v>
+      </c>
+      <c r="F4" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Link</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>1292</v>
+      </c>
+      <c r="H4" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>Link</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>1293</v>
+      </c>
+      <c r="J4" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>Link</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>1294</v>
+      </c>
+      <c r="L4" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>Link</v>
+      </c>
+      <c r="M4" s="16" t="s">
+        <v>1295</v>
+      </c>
+      <c r="N4" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>Link</v>
+      </c>
+      <c r="O4" s="16" t="s">
+        <v>1296</v>
+      </c>
+      <c r="P4" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v>Link</v>
+      </c>
+      <c r="Q4" s="16" t="s">
+        <v>1297</v>
+      </c>
+      <c r="R4" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v>Link</v>
+      </c>
+      <c r="S4" s="16" t="s">
+        <v>1278</v>
+      </c>
+      <c r="T4" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v>Link</v>
+      </c>
+      <c r="U4" s="16" t="s">
+        <v>1279</v>
+      </c>
+      <c r="V4" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v>Link</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5" s="17">
+        <v>96631260</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D5" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Link</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>1300</v>
+      </c>
+      <c r="F5" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Link</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>1301</v>
+      </c>
+      <c r="H5" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>Link</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>1302</v>
+      </c>
+      <c r="J5" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>Link</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>1303</v>
+      </c>
+      <c r="L5" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>Link</v>
+      </c>
+      <c r="M5" s="16" t="s">
+        <v>1304</v>
+      </c>
+      <c r="N5" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>Link</v>
+      </c>
+      <c r="O5" s="16" t="s">
+        <v>1305</v>
+      </c>
+      <c r="P5" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v>Link</v>
+      </c>
+      <c r="Q5" s="16" t="s">
+        <v>1306</v>
+      </c>
+      <c r="R5" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v>Link</v>
+      </c>
+      <c r="S5" s="16" t="s">
+        <v>1278</v>
+      </c>
+      <c r="T5" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v>Link</v>
+      </c>
+      <c r="U5" s="16" t="s">
+        <v>1279</v>
+      </c>
+      <c r="V5" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v>Link</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A6" s="17">
+        <v>96631261</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D6" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Link</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>1309</v>
+      </c>
+      <c r="F6" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Link</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>1310</v>
+      </c>
+      <c r="H6" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>Link</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>1311</v>
+      </c>
+      <c r="J6" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>Link</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>1312</v>
+      </c>
+      <c r="L6" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>Link</v>
+      </c>
+      <c r="M6" s="16" t="s">
+        <v>1313</v>
+      </c>
+      <c r="N6" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>Link</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>1314</v>
+      </c>
+      <c r="P6" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v>Link</v>
+      </c>
+      <c r="Q6" s="16" t="s">
+        <v>1315</v>
+      </c>
+      <c r="R6" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v>Link</v>
+      </c>
+      <c r="S6" s="16" t="s">
+        <v>1278</v>
+      </c>
+      <c r="T6" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v>Link</v>
+      </c>
+      <c r="U6" s="16" t="s">
+        <v>1279</v>
+      </c>
+      <c r="V6" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v>Link</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A7" s="17">
+        <v>96631262</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D7" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Link</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>1318</v>
+      </c>
+      <c r="F7" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Link</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>1319</v>
+      </c>
+      <c r="H7" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>Link</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>1320</v>
+      </c>
+      <c r="J7" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>Link</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>1321</v>
+      </c>
+      <c r="L7" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>Link</v>
+      </c>
+      <c r="M7" s="16" t="s">
+        <v>1322</v>
+      </c>
+      <c r="N7" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>Link</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>1323</v>
+      </c>
+      <c r="P7" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v>Link</v>
+      </c>
+      <c r="Q7" s="16" t="s">
+        <v>1324</v>
+      </c>
+      <c r="R7" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v>Link</v>
+      </c>
+      <c r="S7" s="16" t="s">
+        <v>1278</v>
+      </c>
+      <c r="T7" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v>Link</v>
+      </c>
+      <c r="U7" s="16" t="s">
+        <v>1279</v>
+      </c>
+      <c r="V7" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v>Link</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A8" s="17">
+        <v>96631263</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>1326</v>
+      </c>
+      <c r="D8" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Link</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>1327</v>
+      </c>
+      <c r="F8" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Link</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>1328</v>
+      </c>
+      <c r="H8" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>Link</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>1329</v>
+      </c>
+      <c r="J8" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>Link</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>1330</v>
+      </c>
+      <c r="L8" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>Link</v>
+      </c>
+      <c r="M8" s="16" t="s">
+        <v>1331</v>
+      </c>
+      <c r="N8" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>Link</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>1332</v>
+      </c>
+      <c r="P8" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v>Link</v>
+      </c>
+      <c r="Q8" s="16" t="s">
+        <v>1333</v>
+      </c>
+      <c r="R8" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v>Link</v>
+      </c>
+      <c r="S8" s="16" t="s">
+        <v>1278</v>
+      </c>
+      <c r="T8" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v>Link</v>
+      </c>
+      <c r="U8" s="16" t="s">
+        <v>1279</v>
+      </c>
+      <c r="V8" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v>Link</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A9" s="17">
+        <v>96631268</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>1335</v>
+      </c>
+      <c r="D9" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Link</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>1336</v>
+      </c>
+      <c r="F9" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Link</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>1337</v>
+      </c>
+      <c r="H9" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>Link</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J9" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>Link</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>1339</v>
+      </c>
+      <c r="L9" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>Link</v>
+      </c>
+      <c r="M9" s="16" t="s">
+        <v>1340</v>
+      </c>
+      <c r="N9" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>Link</v>
+      </c>
+      <c r="O9" s="16" t="s">
+        <v>1341</v>
+      </c>
+      <c r="P9" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v>Link</v>
+      </c>
+      <c r="Q9" s="16" t="s">
+        <v>1342</v>
+      </c>
+      <c r="R9" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v>Link</v>
+      </c>
+      <c r="S9" s="16" t="s">
+        <v>1278</v>
+      </c>
+      <c r="T9" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v>Link</v>
+      </c>
+      <c r="U9" s="16" t="s">
+        <v>1279</v>
+      </c>
+      <c r="V9" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v>Link</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A10" s="17">
+        <v>96631269</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D10" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Link</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>1345</v>
+      </c>
+      <c r="F10" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Link</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>1346</v>
+      </c>
+      <c r="H10" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>Link</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>1347</v>
+      </c>
+      <c r="J10" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>Link</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>1348</v>
+      </c>
+      <c r="L10" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>Link</v>
+      </c>
+      <c r="M10" s="16" t="s">
+        <v>1349</v>
+      </c>
+      <c r="N10" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>Link</v>
+      </c>
+      <c r="O10" s="16" t="s">
+        <v>1350</v>
+      </c>
+      <c r="P10" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v>Link</v>
+      </c>
+      <c r="Q10" s="16" t="s">
+        <v>1351</v>
+      </c>
+      <c r="R10" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v>Link</v>
+      </c>
+      <c r="S10" s="16" t="s">
+        <v>1278</v>
+      </c>
+      <c r="T10" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v>Link</v>
+      </c>
+      <c r="U10" s="16" t="s">
+        <v>1279</v>
+      </c>
+      <c r="V10" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v>Link</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A11" s="17">
+        <v>96631270</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D11" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Link</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>1354</v>
+      </c>
+      <c r="F11" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Link</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>1355</v>
+      </c>
+      <c r="H11" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>Link</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>1356</v>
+      </c>
+      <c r="J11" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>Link</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>1357</v>
+      </c>
+      <c r="L11" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>Link</v>
+      </c>
+      <c r="M11" s="16" t="s">
+        <v>1358</v>
+      </c>
+      <c r="N11" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>Link</v>
+      </c>
+      <c r="O11" s="16" t="s">
+        <v>1359</v>
+      </c>
+      <c r="P11" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v>Link</v>
+      </c>
+      <c r="Q11" s="16" t="s">
+        <v>1360</v>
+      </c>
+      <c r="R11" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v>Link</v>
+      </c>
+      <c r="S11" s="16" t="s">
+        <v>1278</v>
+      </c>
+      <c r="T11" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v>Link</v>
+      </c>
+      <c r="U11" s="16" t="s">
+        <v>1279</v>
+      </c>
+      <c r="V11" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v>Link</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A12" s="17">
+        <v>96631271</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>1362</v>
+      </c>
+      <c r="D12" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Link</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>1363</v>
+      </c>
+      <c r="F12" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Link</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>1364</v>
+      </c>
+      <c r="H12" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>Link</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>1365</v>
+      </c>
+      <c r="J12" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>Link</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>1366</v>
+      </c>
+      <c r="L12" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>Link</v>
+      </c>
+      <c r="M12" s="16" t="s">
+        <v>1367</v>
+      </c>
+      <c r="N12" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>Link</v>
+      </c>
+      <c r="O12" s="16" t="s">
+        <v>1368</v>
+      </c>
+      <c r="P12" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v>Link</v>
+      </c>
+      <c r="Q12" s="16" t="s">
+        <v>1369</v>
+      </c>
+      <c r="R12" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v>Link</v>
+      </c>
+      <c r="S12" s="16" t="s">
+        <v>1278</v>
+      </c>
+      <c r="T12" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v>Link</v>
+      </c>
+      <c r="U12" s="16" t="s">
+        <v>1279</v>
+      </c>
+      <c r="V12" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v>Link</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A13" s="17">
+        <v>96631272</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D13" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Link</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>1372</v>
+      </c>
+      <c r="F13" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Link</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H13" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>Link</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>1374</v>
+      </c>
+      <c r="J13" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>Link</v>
+      </c>
+      <c r="K13" s="16" t="s">
+        <v>1375</v>
+      </c>
+      <c r="L13" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>Link</v>
+      </c>
+      <c r="M13" s="16" t="s">
+        <v>1376</v>
+      </c>
+      <c r="N13" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>Link</v>
+      </c>
+      <c r="O13" s="16" t="s">
+        <v>1377</v>
+      </c>
+      <c r="P13" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v>Link</v>
+      </c>
+      <c r="Q13" s="16" t="s">
+        <v>1378</v>
+      </c>
+      <c r="R13" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v>Link</v>
+      </c>
+      <c r="S13" s="16" t="s">
+        <v>1278</v>
+      </c>
+      <c r="T13" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v>Link</v>
+      </c>
+      <c r="U13" s="16" t="s">
+        <v>1279</v>
+      </c>
+      <c r="V13" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v>Link</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A14" s="17">
+        <v>96631273</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>1380</v>
+      </c>
+      <c r="D14" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Link</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>1381</v>
+      </c>
+      <c r="F14" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Link</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>1382</v>
+      </c>
+      <c r="H14" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>Link</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>1383</v>
+      </c>
+      <c r="J14" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>Link</v>
+      </c>
+      <c r="K14" s="16" t="s">
+        <v>1384</v>
+      </c>
+      <c r="L14" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>Link</v>
+      </c>
+      <c r="M14" s="16" t="s">
+        <v>1385</v>
+      </c>
+      <c r="N14" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>Link</v>
+      </c>
+      <c r="O14" s="16" t="s">
+        <v>1386</v>
+      </c>
+      <c r="P14" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v>Link</v>
+      </c>
+      <c r="Q14" s="16" t="s">
+        <v>1387</v>
+      </c>
+      <c r="R14" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v>Link</v>
+      </c>
+      <c r="S14" s="16" t="s">
+        <v>1278</v>
+      </c>
+      <c r="T14" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v>Link</v>
+      </c>
+      <c r="U14" s="16" t="s">
+        <v>1279</v>
+      </c>
+      <c r="V14" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v>Link</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A15" s="17">
+        <v>96631274</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>1389</v>
+      </c>
+      <c r="D15" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Link</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>1390</v>
+      </c>
+      <c r="F15" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Link</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>1391</v>
+      </c>
+      <c r="H15" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>Link</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>1392</v>
+      </c>
+      <c r="J15" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>Link</v>
+      </c>
+      <c r="K15" s="17"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="18"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{286098B1-46D8-A247-A544-FFFE6E410678}">
   <dimension ref="A1:B166"/>
   <sheetViews>
@@ -28733,7 +33358,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA1C6376-B22F-0946-9C25-1C7703448B3F}">
   <dimension ref="A1:B171"/>
   <sheetViews>
@@ -30116,7 +34741,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47CB5262-C419-CA47-8E7D-801175679AA2}">
   <dimension ref="A1:B179"/>
   <sheetViews>
@@ -31563,7 +36188,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E8D7B5-F8A2-F247-9A1F-EF2E6C688B95}">
   <dimension ref="A1:C167"/>
   <sheetViews>
@@ -33415,7 +38040,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E80795BC-0731-784E-BF02-AD181D6C0577}">
   <dimension ref="A1:B172"/>
   <sheetViews>
@@ -34810,7 +39435,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{336CE7AF-6C9C-D742-A382-335DCB182914}">
   <dimension ref="A1:B180"/>
   <sheetViews>
@@ -36265,7 +40890,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FBC5E77-7463-8646-8417-A0B9B6930268}">
   <dimension ref="A1:B167"/>
   <sheetViews>
@@ -37557,1823 +42182,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA4A1B7A-B4E1-7E4E-B1B4-780578A9EC15}">
-  <dimension ref="A1:C164"/>
-  <sheetViews>
-    <sheetView topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="A139" sqref="A139"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>748</v>
-      </c>
-      <c r="B1" t="s">
-        <v>746</v>
-      </c>
-      <c r="C1" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>96629371</v>
-      </c>
-      <c r="B2" t="s">
-        <v>749</v>
-      </c>
-      <c r="C2" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>96629372</v>
-      </c>
-      <c r="B3" t="s">
-        <v>751</v>
-      </c>
-      <c r="C3" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>96629373</v>
-      </c>
-      <c r="B4" t="s">
-        <v>752</v>
-      </c>
-      <c r="C4" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>96628836</v>
-      </c>
-      <c r="B5" t="s">
-        <v>753</v>
-      </c>
-      <c r="C5" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>96666073</v>
-      </c>
-      <c r="B6" t="s">
-        <v>754</v>
-      </c>
-      <c r="C6" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>96666074</v>
-      </c>
-      <c r="B7" t="s">
-        <v>755</v>
-      </c>
-      <c r="C7" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>96666075</v>
-      </c>
-      <c r="B8" t="s">
-        <v>756</v>
-      </c>
-      <c r="C8" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>96666076</v>
-      </c>
-      <c r="B9" t="s">
-        <v>757</v>
-      </c>
-      <c r="C9" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>96665583</v>
-      </c>
-      <c r="B10" t="s">
-        <v>758</v>
-      </c>
-      <c r="C10" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>96665584</v>
-      </c>
-      <c r="B11" t="s">
-        <v>759</v>
-      </c>
-      <c r="C11" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>96628352</v>
-      </c>
-      <c r="B12" t="s">
-        <v>760</v>
-      </c>
-      <c r="C12" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>96628353</v>
-      </c>
-      <c r="B13" t="s">
-        <v>761</v>
-      </c>
-      <c r="C13" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>96665585</v>
-      </c>
-      <c r="B14" t="s">
-        <v>762</v>
-      </c>
-      <c r="C14" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>96665586</v>
-      </c>
-      <c r="B15" t="s">
-        <v>763</v>
-      </c>
-      <c r="C15" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>96665844</v>
-      </c>
-      <c r="B16" t="s">
-        <v>764</v>
-      </c>
-      <c r="C16" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>96665845</v>
-      </c>
-      <c r="B17" t="s">
-        <v>765</v>
-      </c>
-      <c r="C17" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>96665846</v>
-      </c>
-      <c r="B18" t="s">
-        <v>766</v>
-      </c>
-      <c r="C18" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>96665847</v>
-      </c>
-      <c r="B19" t="s">
-        <v>767</v>
-      </c>
-      <c r="C19" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>96665848</v>
-      </c>
-      <c r="B20" t="s">
-        <v>768</v>
-      </c>
-      <c r="C20" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>96665849</v>
-      </c>
-      <c r="B21" t="s">
-        <v>769</v>
-      </c>
-      <c r="C21" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>96665587</v>
-      </c>
-      <c r="B22" t="s">
-        <v>770</v>
-      </c>
-      <c r="C22" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>96665588</v>
-      </c>
-      <c r="B23" t="s">
-        <v>771</v>
-      </c>
-      <c r="C23" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>96631113</v>
-      </c>
-      <c r="B24" t="s">
-        <v>772</v>
-      </c>
-      <c r="C24" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>96631114</v>
-      </c>
-      <c r="B25" t="s">
-        <v>773</v>
-      </c>
-      <c r="C25" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>96631115</v>
-      </c>
-      <c r="B26" t="s">
-        <v>774</v>
-      </c>
-      <c r="C26" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>96631116</v>
-      </c>
-      <c r="B27" t="s">
-        <v>775</v>
-      </c>
-      <c r="C27" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>96631117</v>
-      </c>
-      <c r="B28" t="s">
-        <v>776</v>
-      </c>
-      <c r="C28" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>96630069</v>
-      </c>
-      <c r="B29" t="s">
-        <v>777</v>
-      </c>
-      <c r="C29" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>96630066</v>
-      </c>
-      <c r="B30" t="s">
-        <v>778</v>
-      </c>
-      <c r="C30" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>96630070</v>
-      </c>
-      <c r="B31" t="s">
-        <v>779</v>
-      </c>
-      <c r="C31" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>96630067</v>
-      </c>
-      <c r="B32" t="s">
-        <v>780</v>
-      </c>
-      <c r="C32" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>96630224</v>
-      </c>
-      <c r="B33" t="s">
-        <v>781</v>
-      </c>
-      <c r="C33" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>96630226</v>
-      </c>
-      <c r="B34" t="s">
-        <v>782</v>
-      </c>
-      <c r="C34" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>96630225</v>
-      </c>
-      <c r="B35" t="s">
-        <v>783</v>
-      </c>
-      <c r="C35" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>96630227</v>
-      </c>
-      <c r="B36" t="s">
-        <v>784</v>
-      </c>
-      <c r="C36" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>96630223</v>
-      </c>
-      <c r="B37" t="s">
-        <v>785</v>
-      </c>
-      <c r="C37" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>96630068</v>
-      </c>
-      <c r="B38" t="s">
-        <v>786</v>
-      </c>
-      <c r="C38" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>96630376</v>
-      </c>
-      <c r="B39" t="s">
-        <v>787</v>
-      </c>
-      <c r="C39" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>96630377</v>
-      </c>
-      <c r="B40" t="s">
-        <v>788</v>
-      </c>
-      <c r="C40" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>96630378</v>
-      </c>
-      <c r="B41" t="s">
-        <v>789</v>
-      </c>
-      <c r="C41" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>96630379</v>
-      </c>
-      <c r="B42" t="s">
-        <v>790</v>
-      </c>
-      <c r="C42" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>96630327</v>
-      </c>
-      <c r="B43" t="s">
-        <v>791</v>
-      </c>
-      <c r="C43" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>96630328</v>
-      </c>
-      <c r="B44" t="s">
-        <v>792</v>
-      </c>
-      <c r="C44" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>96630329</v>
-      </c>
-      <c r="B45" t="s">
-        <v>793</v>
-      </c>
-      <c r="C45" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>96630330</v>
-      </c>
-      <c r="B46" t="s">
-        <v>794</v>
-      </c>
-      <c r="C46" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>96631131</v>
-      </c>
-      <c r="B47" t="s">
-        <v>795</v>
-      </c>
-      <c r="C47" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>96628615</v>
-      </c>
-      <c r="B48" t="s">
-        <v>796</v>
-      </c>
-      <c r="C48" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>96666098</v>
-      </c>
-      <c r="B49" t="s">
-        <v>797</v>
-      </c>
-      <c r="C49" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>96666099</v>
-      </c>
-      <c r="B50" t="s">
-        <v>798</v>
-      </c>
-      <c r="C50" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>96628614</v>
-      </c>
-      <c r="B51" t="s">
-        <v>799</v>
-      </c>
-      <c r="C51" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>96630322</v>
-      </c>
-      <c r="B52" t="s">
-        <v>800</v>
-      </c>
-      <c r="C52" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>96666100</v>
-      </c>
-      <c r="B53" t="s">
-        <v>801</v>
-      </c>
-      <c r="C53" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>96629750</v>
-      </c>
-      <c r="B54" t="s">
-        <v>802</v>
-      </c>
-      <c r="C54" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>96629751</v>
-      </c>
-      <c r="B55" t="s">
-        <v>803</v>
-      </c>
-      <c r="C55" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>96631224</v>
-      </c>
-      <c r="B56" t="s">
-        <v>804</v>
-      </c>
-      <c r="C56" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>96630391</v>
-      </c>
-      <c r="B57" t="s">
-        <v>805</v>
-      </c>
-      <c r="C57" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>96630340</v>
-      </c>
-      <c r="B58" t="s">
-        <v>806</v>
-      </c>
-      <c r="C58" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>96630341</v>
-      </c>
-      <c r="B59" t="s">
-        <v>807</v>
-      </c>
-      <c r="C59" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>96630347</v>
-      </c>
-      <c r="B60" t="s">
-        <v>808</v>
-      </c>
-      <c r="C60" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>96630349</v>
-      </c>
-      <c r="B61" t="s">
-        <v>809</v>
-      </c>
-      <c r="C61" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>96630350</v>
-      </c>
-      <c r="B62" t="s">
-        <v>810</v>
-      </c>
-      <c r="C62" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>96630390</v>
-      </c>
-      <c r="B63" t="s">
-        <v>811</v>
-      </c>
-      <c r="C63" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>96630345</v>
-      </c>
-      <c r="B64" t="s">
-        <v>812</v>
-      </c>
-      <c r="C64" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>96630573</v>
-      </c>
-      <c r="B65" t="s">
-        <v>813</v>
-      </c>
-      <c r="C65" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>96630574</v>
-      </c>
-      <c r="B66" t="s">
-        <v>814</v>
-      </c>
-      <c r="C66" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>96630346</v>
-      </c>
-      <c r="B67" t="s">
-        <v>815</v>
-      </c>
-      <c r="C67" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>96630344</v>
-      </c>
-      <c r="B68" t="s">
-        <v>816</v>
-      </c>
-      <c r="C68" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>96630323</v>
-      </c>
-      <c r="B69" t="s">
-        <v>817</v>
-      </c>
-      <c r="C69" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>96630324</v>
-      </c>
-      <c r="B70" t="s">
-        <v>818</v>
-      </c>
-      <c r="C70" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>96630325</v>
-      </c>
-      <c r="B71" t="s">
-        <v>819</v>
-      </c>
-      <c r="C71" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>96630326</v>
-      </c>
-      <c r="B72" t="s">
-        <v>820</v>
-      </c>
-      <c r="C72" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>96628409</v>
-      </c>
-      <c r="B73" t="s">
-        <v>821</v>
-      </c>
-      <c r="C73" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>96628410</v>
-      </c>
-      <c r="B74" t="s">
-        <v>822</v>
-      </c>
-      <c r="C74" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>96630234</v>
-      </c>
-      <c r="B75" t="s">
-        <v>823</v>
-      </c>
-      <c r="C75" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>96630237</v>
-      </c>
-      <c r="B76" t="s">
-        <v>824</v>
-      </c>
-      <c r="C76" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>96630238</v>
-      </c>
-      <c r="B77" t="s">
-        <v>825</v>
-      </c>
-      <c r="C77" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>96630239</v>
-      </c>
-      <c r="B78" t="s">
-        <v>826</v>
-      </c>
-      <c r="C78" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>96631093</v>
-      </c>
-      <c r="B79" t="s">
-        <v>827</v>
-      </c>
-      <c r="C79" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <v>96665577</v>
-      </c>
-      <c r="B80" t="s">
-        <v>828</v>
-      </c>
-      <c r="C80" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>96628396</v>
-      </c>
-      <c r="B81" t="s">
-        <v>829</v>
-      </c>
-      <c r="C81" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <v>96630235</v>
-      </c>
-      <c r="B82" t="s">
-        <v>830</v>
-      </c>
-      <c r="C82" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>96630236</v>
-      </c>
-      <c r="B83" t="s">
-        <v>831</v>
-      </c>
-      <c r="C83" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>96630240</v>
-      </c>
-      <c r="B84" t="s">
-        <v>832</v>
-      </c>
-      <c r="C84" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>96630241</v>
-      </c>
-      <c r="B85" t="s">
-        <v>833</v>
-      </c>
-      <c r="C85" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <v>96631094</v>
-      </c>
-      <c r="B86" t="s">
-        <v>834</v>
-      </c>
-      <c r="C86" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <v>96631095</v>
-      </c>
-      <c r="B87" t="s">
-        <v>835</v>
-      </c>
-      <c r="C87" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88">
-        <v>96665580</v>
-      </c>
-      <c r="B88" t="s">
-        <v>836</v>
-      </c>
-      <c r="C88" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <v>96631143</v>
-      </c>
-      <c r="B89" t="s">
-        <v>837</v>
-      </c>
-      <c r="C89" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90">
-        <v>96631144</v>
-      </c>
-      <c r="B90" t="s">
-        <v>838</v>
-      </c>
-      <c r="C90" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91">
-        <v>96628548</v>
-      </c>
-      <c r="B91" t="s">
-        <v>839</v>
-      </c>
-      <c r="C91" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <v>96665578</v>
-      </c>
-      <c r="B92" t="s">
-        <v>840</v>
-      </c>
-      <c r="C92" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <v>96665579</v>
-      </c>
-      <c r="B93" t="s">
-        <v>841</v>
-      </c>
-      <c r="C93" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>96628397</v>
-      </c>
-      <c r="B94" t="s">
-        <v>842</v>
-      </c>
-      <c r="C94" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <v>96665581</v>
-      </c>
-      <c r="B95" t="s">
-        <v>843</v>
-      </c>
-      <c r="C95" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <v>96665582</v>
-      </c>
-      <c r="B96" t="s">
-        <v>844</v>
-      </c>
-      <c r="C96" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97">
-        <v>96630071</v>
-      </c>
-      <c r="B97" t="s">
-        <v>845</v>
-      </c>
-      <c r="C97" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <v>96630072</v>
-      </c>
-      <c r="B98" t="s">
-        <v>846</v>
-      </c>
-      <c r="C98" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <v>96630073</v>
-      </c>
-      <c r="B99" t="s">
-        <v>847</v>
-      </c>
-      <c r="C99" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100">
-        <v>96630074</v>
-      </c>
-      <c r="B100" t="s">
-        <v>848</v>
-      </c>
-      <c r="C100" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101">
-        <v>96666121</v>
-      </c>
-      <c r="B101" t="s">
-        <v>849</v>
-      </c>
-      <c r="C101" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102">
-        <v>96666122</v>
-      </c>
-      <c r="B102" t="s">
-        <v>850</v>
-      </c>
-      <c r="C102" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103">
-        <v>96666123</v>
-      </c>
-      <c r="B103" t="s">
-        <v>851</v>
-      </c>
-      <c r="C103" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104">
-        <v>96666124</v>
-      </c>
-      <c r="B104" t="s">
-        <v>852</v>
-      </c>
-      <c r="C104" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105">
-        <v>96666125</v>
-      </c>
-      <c r="B105" t="s">
-        <v>853</v>
-      </c>
-      <c r="C105" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106">
-        <v>96666126</v>
-      </c>
-      <c r="B106" t="s">
-        <v>854</v>
-      </c>
-      <c r="C106" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107">
-        <v>96666127</v>
-      </c>
-      <c r="B107" t="s">
-        <v>855</v>
-      </c>
-      <c r="C107" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A108">
-        <v>96666128</v>
-      </c>
-      <c r="B108" t="s">
-        <v>856</v>
-      </c>
-      <c r="C108" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A109">
-        <v>96666129</v>
-      </c>
-      <c r="B109" t="s">
-        <v>857</v>
-      </c>
-      <c r="C109" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110">
-        <v>96666130</v>
-      </c>
-      <c r="B110" t="s">
-        <v>858</v>
-      </c>
-      <c r="C110" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A111">
-        <v>96666103</v>
-      </c>
-      <c r="B111" t="s">
-        <v>859</v>
-      </c>
-      <c r="C111" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A112">
-        <v>96666104</v>
-      </c>
-      <c r="B112" t="s">
-        <v>860</v>
-      </c>
-      <c r="C112" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113">
-        <v>96666107</v>
-      </c>
-      <c r="B113" t="s">
-        <v>861</v>
-      </c>
-      <c r="C113" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114">
-        <v>96666108</v>
-      </c>
-      <c r="B114" t="s">
-        <v>862</v>
-      </c>
-      <c r="C114" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115">
-        <v>96666111</v>
-      </c>
-      <c r="B115" t="s">
-        <v>863</v>
-      </c>
-      <c r="C115" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116">
-        <v>96666112</v>
-      </c>
-      <c r="B116" t="s">
-        <v>864</v>
-      </c>
-      <c r="C116" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117">
-        <v>96666115</v>
-      </c>
-      <c r="B117" t="s">
-        <v>865</v>
-      </c>
-      <c r="C117" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118">
-        <v>96666116</v>
-      </c>
-      <c r="B118" t="s">
-        <v>866</v>
-      </c>
-      <c r="C118" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119">
-        <v>96628828</v>
-      </c>
-      <c r="B119" t="s">
-        <v>867</v>
-      </c>
-      <c r="C119" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120">
-        <v>96628900</v>
-      </c>
-      <c r="B120" t="s">
-        <v>868</v>
-      </c>
-      <c r="C120" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121">
-        <v>96629752</v>
-      </c>
-      <c r="B121" t="s">
-        <v>869</v>
-      </c>
-      <c r="C121" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122">
-        <v>96629753</v>
-      </c>
-      <c r="B122" t="s">
-        <v>870</v>
-      </c>
-      <c r="C122" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123">
-        <v>96629754</v>
-      </c>
-      <c r="B123" t="s">
-        <v>871</v>
-      </c>
-      <c r="C123" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124">
-        <v>96629755</v>
-      </c>
-      <c r="B124" t="s">
-        <v>872</v>
-      </c>
-      <c r="C124" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A125">
-        <v>96629756</v>
-      </c>
-      <c r="B125" t="s">
-        <v>873</v>
-      </c>
-      <c r="C125" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126">
-        <v>96630393</v>
-      </c>
-      <c r="B126" t="s">
-        <v>874</v>
-      </c>
-      <c r="C126" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127">
-        <v>96666101</v>
-      </c>
-      <c r="B127" t="s">
-        <v>875</v>
-      </c>
-      <c r="C127" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128">
-        <v>96666102</v>
-      </c>
-      <c r="B128" t="s">
-        <v>876</v>
-      </c>
-      <c r="C128" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129">
-        <v>96666105</v>
-      </c>
-      <c r="B129" t="s">
-        <v>877</v>
-      </c>
-      <c r="C129" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130">
-        <v>96666106</v>
-      </c>
-      <c r="B130" t="s">
-        <v>878</v>
-      </c>
-      <c r="C130" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131">
-        <v>96666109</v>
-      </c>
-      <c r="B131" t="s">
-        <v>879</v>
-      </c>
-      <c r="C131" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132">
-        <v>96666110</v>
-      </c>
-      <c r="B132" t="s">
-        <v>880</v>
-      </c>
-      <c r="C132" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133">
-        <v>96666113</v>
-      </c>
-      <c r="B133" t="s">
-        <v>881</v>
-      </c>
-      <c r="C133" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134">
-        <v>96666114</v>
-      </c>
-      <c r="B134" t="s">
-        <v>882</v>
-      </c>
-      <c r="C134" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135">
-        <v>96666117</v>
-      </c>
-      <c r="B135" t="s">
-        <v>883</v>
-      </c>
-      <c r="C135" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136">
-        <v>96666118</v>
-      </c>
-      <c r="B136" t="s">
-        <v>884</v>
-      </c>
-      <c r="C136" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137">
-        <v>96666119</v>
-      </c>
-      <c r="B137" t="s">
-        <v>885</v>
-      </c>
-      <c r="C137" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138">
-        <v>96666120</v>
-      </c>
-      <c r="B138" t="s">
-        <v>886</v>
-      </c>
-      <c r="C138" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139">
-        <v>96628612</v>
-      </c>
-      <c r="B139" t="s">
-        <v>887</v>
-      </c>
-      <c r="C139" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A140">
-        <v>96630252</v>
-      </c>
-      <c r="B140" t="s">
-        <v>888</v>
-      </c>
-      <c r="C140" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A141">
-        <v>96630253</v>
-      </c>
-      <c r="B141" t="s">
-        <v>889</v>
-      </c>
-      <c r="C141" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A142">
-        <v>96630254</v>
-      </c>
-      <c r="B142" t="s">
-        <v>890</v>
-      </c>
-      <c r="C142" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A143">
-        <v>96630255</v>
-      </c>
-      <c r="B143" t="s">
-        <v>891</v>
-      </c>
-      <c r="C143" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A144">
-        <v>96644483</v>
-      </c>
-      <c r="B144" t="s">
-        <v>892</v>
-      </c>
-      <c r="C144" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A145">
-        <v>96644484</v>
-      </c>
-      <c r="B145" t="s">
-        <v>893</v>
-      </c>
-      <c r="C145" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A146">
-        <v>96644485</v>
-      </c>
-      <c r="B146" t="s">
-        <v>894</v>
-      </c>
-      <c r="C146" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A147">
-        <v>96644486</v>
-      </c>
-      <c r="B147" t="s">
-        <v>895</v>
-      </c>
-      <c r="C147" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A148">
-        <v>96628613</v>
-      </c>
-      <c r="B148" t="s">
-        <v>896</v>
-      </c>
-      <c r="C148" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A149">
-        <v>96666080</v>
-      </c>
-      <c r="B149" t="s">
-        <v>897</v>
-      </c>
-      <c r="C149" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A150">
-        <v>96666081</v>
-      </c>
-      <c r="B150" t="s">
-        <v>898</v>
-      </c>
-      <c r="C150" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A151">
-        <v>96666082</v>
-      </c>
-      <c r="B151" t="s">
-        <v>899</v>
-      </c>
-      <c r="C151" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A152">
-        <v>96666083</v>
-      </c>
-      <c r="B152" t="s">
-        <v>900</v>
-      </c>
-      <c r="C152" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A153">
-        <v>96666084</v>
-      </c>
-      <c r="B153" t="s">
-        <v>901</v>
-      </c>
-      <c r="C153" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A154">
-        <v>96666085</v>
-      </c>
-      <c r="B154" t="s">
-        <v>902</v>
-      </c>
-      <c r="C154" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A155">
-        <v>96666086</v>
-      </c>
-      <c r="B155" t="s">
-        <v>903</v>
-      </c>
-      <c r="C155" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A156">
-        <v>96666087</v>
-      </c>
-      <c r="B156" t="s">
-        <v>904</v>
-      </c>
-      <c r="C156" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A157">
-        <v>96666088</v>
-      </c>
-      <c r="B157" t="s">
-        <v>905</v>
-      </c>
-      <c r="C157" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A158">
-        <v>96666089</v>
-      </c>
-      <c r="B158" t="s">
-        <v>906</v>
-      </c>
-      <c r="C158" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A159">
-        <v>96666090</v>
-      </c>
-      <c r="B159" t="s">
-        <v>907</v>
-      </c>
-      <c r="C159" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A160">
-        <v>96666092</v>
-      </c>
-      <c r="B160" t="s">
-        <v>908</v>
-      </c>
-      <c r="C160" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A161">
-        <v>96666093</v>
-      </c>
-      <c r="B161" t="s">
-        <v>909</v>
-      </c>
-      <c r="C161" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A162">
-        <v>96666094</v>
-      </c>
-      <c r="B162" t="s">
-        <v>910</v>
-      </c>
-      <c r="C162" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A163">
-        <v>96666095</v>
-      </c>
-      <c r="B163" t="s">
-        <v>911</v>
-      </c>
-      <c r="C163" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A164">
-        <v>96666091</v>
-      </c>
-      <c r="B164" t="s">
-        <v>912</v>
-      </c>
-      <c r="C164" t="s">
-        <v>750</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>